--- a/TMS_PCMs.xlsx
+++ b/TMS_PCMs.xlsx
@@ -306,7 +306,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TT-20251023000567</t>
+          <t>TT-20251023000622</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -326,7 +326,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-23 19:43:39</t>
+          <t>2025-10-23 22:53:19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -341,22 +341,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SAR0566</t>
+          <t>RIY2983</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Region_3</t>
+          <t>Region_2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Generator_SG</t>
+          <t>Sceco</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001890</t>
+          <t>PCM-20251023-00002139</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -371,7 +371,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1(2G/3G/LTE) sites down under SAR0566-P3/R3_HL_HWBSC01 @ Generator_SG</t>
+          <t>2(2G) sites down under RIY2983-P3,RIY2575-P3/R2_RY4_HWBSC01 @ Generator_SG</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -391,12 +391,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001890</t>
+          <t>PCM-20251023-00002139</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>TT-20251023-01886</t>
+          <t>TT-20251023-02112</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -416,12 +416,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>2025-10-23 19:36:28</t>
+          <t>2025-10-23 22:19:30</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2G_3G_LTE SA</t>
+          <t>2G SA</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -441,7 +441,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-10-23 19:36:28</t>
+          <t>2025-10-23 22:19:30</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -451,17 +451,23 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t/>
+          <t>Dear Team,
+Hub:- RIY2983
+Suspecting power issue at hub site and kindly send EM-FLM team to check and resolve issue at site.
+Kindly update TT under EM FLM</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t/>
+          <t>Dear Team,
+Hub:- RIY2983
+Suspecting power issue at hub site and kindly send EM-FLM team to check and resolve issue at site.
+Kindly update TT under EM FLM</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20251023-00002115</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -471,7 +477,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001890</t>
+          <t>PCM-20251023-00002139</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -481,7 +487,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>SAR0566</t>
+          <t>RIY2983</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -491,7 +497,7 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>hail</t>
+          <t>riyadh</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -501,12 +507,12 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Telecom</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>SRAN</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -521,17 +527,17 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>SAR0566-P3</t>
+          <t>RIY2575-P3 2G,RIY2983-P3 2G</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0569</t>
+          <t>SERIAL-20251023-0626</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>2025-10-23 19:36:30</t>
+          <t>2025-10-23 22:19:32</t>
         </is>
       </c>
     </row>
@@ -543,7 +549,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TT-20251023000566</t>
+          <t>TT-20251023000616</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -563,7 +569,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-10-23 19:41:34</t>
+          <t>2025-10-23 22:21:39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -578,12 +584,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>JED2004</t>
+          <t>WJZ0068</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Region_4</t>
+          <t>Region_6</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -593,7 +599,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001888</t>
+          <t>PCM-20251023-00002109</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -608,12 +614,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2(2G) 2(LTE) 2(5G) sites down under JED2004-P3,JED2717-P1-VIP/JED2717-P1-VIP @ Sceco</t>
+          <t>1(2G/3G/LTE) sites down under WJZ0068-P2/WJZ0068-P2 @ Sceco</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -628,12 +634,12 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001888</t>
+          <t>PCM-20251023-00002109</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>TT-20251023-01809</t>
+          <t>TT-20251023-02080</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -648,17 +654,17 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2025-10-23 18:38:31</t>
+          <t>2025-10-23 22:13:42</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2G_LTE_5G SA</t>
+          <t>2G_3G_LTE SA</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -678,7 +684,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-10-23 18:38:31</t>
+          <t>2025-10-23 22:13:42</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -688,17 +694,17 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>JED2004</t>
+          <t/>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>JED2004</t>
+          <t/>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001820</t>
+          <t/>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -708,7 +714,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001888</t>
+          <t>PCM-20251023-00002109</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -718,7 +724,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>JED2004</t>
+          <t>WJZ0068</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -728,7 +734,7 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>jizan</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -738,7 +744,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Telecom</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -758,17 +764,17 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>JED2004-P3 2G_LTE_5G,JED2717-P1-VIP 2G_5G</t>
+          <t>WJZ0068-P2</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0568</t>
+          <t>SERIAL-20251023-0620</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>2025-10-23 18:38:35</t>
+          <t>2025-10-23 22:13:45</t>
         </is>
       </c>
     </row>
@@ -780,7 +786,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TT-20251023000564</t>
+          <t>TT-20251023000610</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -800,7 +806,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-10-23 19:39:59</t>
+          <t>2025-10-23 22:03:29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -815,22 +821,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>MAK0666</t>
+          <t>RIY2864</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Region_5</t>
+          <t>Region_2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sceco</t>
+          <t>Generator_SG</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001885</t>
+          <t>PCM-20251023-00002088</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -845,7 +851,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>6(2G) 2(LTE) 1(5G) sites down under MAK2189-P3 @ Sceco</t>
+          <t>Cell Unavailable at RIY2C8864-L800-CA-P1-VIP @ Generator_SG</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -865,12 +871,12 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001885</t>
+          <t>PCM-20251023-00002088</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>TT-20251023-01855</t>
+          <t>TT-20251023-01821</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -880,32 +886,32 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>Cell Unavailable</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2025-10-23 19:10:13</t>
+          <t>2025-10-23 18:44:23</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2G_LTE_5G SA</t>
+          <t>LTE SA</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>29240</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>Cell Unavailable</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -915,7 +921,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-10-23 19:10:13</t>
+          <t>2025-10-23 18:44:23</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -925,17 +931,17 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>MAK0666</t>
+          <t>FLM Team Facing access issue as Security not allowing to enter the Area, Site Owner is Latis.</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>MAK0666MAK0666</t>
+          <t>FLM Team Facing access issue as Security not allowing to enter the Area, Site Owner is Latis.</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001856</t>
+          <t>PCM-20251023-00001824</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -945,7 +951,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001885</t>
+          <t>PCM-20251023-00002088</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -955,7 +961,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>MAK0666</t>
+          <t/>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -965,7 +971,7 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>riyadh</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -980,7 +986,7 @@
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -995,17 +1001,17 @@
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>MAK0666-P3-NEW 2G_LTE,MAK2189-P3 2G_LTE,MAK0608-P2 2G_5G,MAK2288-P3-NEW 2G,MKJD0564-P2 2G,MAK0720-P2 2G</t>
+          <t>RIY2C8864</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0566</t>
+          <t>SERIAL-20251023-0614</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2025-10-23 19:10:16</t>
+          <t>2025-10-23 18:45:58</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1023,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TT-20251023000562</t>
+          <t>TT-20251023000606</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1037,7 +1043,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-10-23 19:36:40</t>
+          <t>2025-10-23 21:55:29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1052,12 +1058,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BHMF0856</t>
+          <t>JED0845</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Region_6</t>
+          <t>Region_4</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1067,7 +1073,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001878</t>
+          <t>PCM-20251023-00002063</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1082,12 +1088,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1(2G/LTE) sites down under BHMF0856-P3/BHMF0856-P3 @ Sceco</t>
+          <t>1(2G) 1(LTE) 2(5G) sites down under JED0845-NR2.6-P3,JED2680-P3/JED2680-P3 @ Sceco</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1102,12 +1108,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001878</t>
+          <t>PCM-20251023-00002063</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>TT-20251023-01876</t>
+          <t>TT-20251023-01924</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1127,12 +1133,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2025-10-23 19:28:16</t>
+          <t>2025-10-23 20:01:05</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2G_LTE SA</t>
+          <t>2G_LTE_5G SA</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1152,7 +1158,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-10-23 19:28:16</t>
+          <t>2025-10-23 20:01:05</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1162,17 +1168,17 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t/>
+          <t>down due to power issue</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t/>
+          <t>down due to power issue</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20251023-00001946</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1182,7 +1188,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001878</t>
+          <t>PCM-20251023-00002063</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1192,7 +1198,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>BHMF0856</t>
+          <t>JED0845</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1202,7 +1208,7 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>makhwa</t>
+          <t>jeddah</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1212,7 +1218,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Telecom</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1232,17 +1238,17 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>BHMF0856-P3</t>
+          <t>JED2680-P3 2G_LTE_5G,JED0845-NR2.6-P3 5G</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0563</t>
+          <t>SERIAL-20251023-0610</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2025-10-23 19:28:19</t>
+          <t>2025-10-23 20:01:12</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1260,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TT-20251023000561</t>
+          <t>TT-20251023000596</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1274,7 +1280,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-10-23 19:36:40</t>
+          <t>2025-10-23 21:15:39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1289,22 +1295,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>SMN0799</t>
+          <t>ARF0756</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Region_1</t>
+          <t>Region_6</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sceco</t>
+          <t>Generator_SG</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001879</t>
+          <t>PCM-20251023-00002011</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1319,12 +1325,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2(2G) 2(3G) 2(LTE) sites down under SMN0832-P3,SMN0830-P3-USF/HB1BSCH01 @ Generator_DG</t>
+          <t>1(2G/5G) sites down under ARF0756-P3/ARF0756-P3 @ Generator_SG</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1339,12 +1345,12 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001879</t>
+          <t>PCM-20251023-00002011</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>TT-20251023-01659</t>
+          <t>TT-20251023-02014</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1354,7 +1360,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1364,22 +1370,22 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2025-10-23 17:13:49</t>
+          <t>2025-10-23 21:06:56</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2G_3G_LTE SA</t>
+          <t>2G_5G SA</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>21825</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1389,7 +1395,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-10-23 17:13:49</t>
+          <t>2025-10-23 21:06:56</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1399,17 +1405,17 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>SMN0799</t>
+          <t/>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>SMN0799</t>
+          <t/>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001865</t>
+          <t/>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1419,7 +1425,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001879</t>
+          <t>PCM-20251023-00002011</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1429,7 +1435,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>SMN0799</t>
+          <t>ARF0756</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1439,7 +1445,7 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>hafr</t>
+          <t>al harja</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1449,12 +1455,12 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Telecom</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>SRAN</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1469,17 +1475,17 @@
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>SMN0832-P3 2G_3G_LTE,SMN0830-P3-USF 2G_3G_LTE</t>
+          <t>ARF0756-P3</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0564</t>
+          <t>SERIAL-20251023-0598</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2025-10-23 17:13:50</t>
+          <t>2025-10-23 21:06:58</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1497,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TT-20251023000558</t>
+          <t>TT-20251023000591</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1511,7 +1517,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-10-23 19:29:59</t>
+          <t>2025-10-23 21:01:14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1526,12 +1532,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>JBL0455</t>
+          <t>JED2066</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Region_1</t>
+          <t>Region_4</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1541,7 +1547,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001871</t>
+          <t>PCM-20251023-00001996</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1556,7 +1562,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2(2G) 2(3G) 2(LTE) sites down under JBL0455-P2,JBL0473-P2/R1_JB_HWBSC01 @ Sceco</t>
+          <t>BASE STATION SERVICE PROBLEM (No connection to unit)  at JED1M8066-CA-L800-SBTS-P3 @ Generator_SG</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1576,12 +1582,12 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001871</t>
+          <t>PCM-20251023-00001996</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>TT-20251023-01846</t>
+          <t>TT-20251023-01679</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1591,32 +1597,32 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2025-10-23 19:05:01</t>
+          <t>2025-10-23 17:22:52</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2G_3G_LTE SA</t>
+          <t>5G_Cell SA</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>21825</t>
+          <t>7116</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1626,7 +1632,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-10-23 19:05:01</t>
+          <t>2025-10-23 17:22:52</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1636,17 +1642,17 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>JBL0455  kindly check site was down suspected power issue</t>
+          <t>site impating due to load issue.</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>JBL0455   kindly check site was down suspected power issue</t>
+          <t>site impating due to load issue.</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001850</t>
+          <t>PCM-20251023-00001676</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1656,7 +1662,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001871</t>
+          <t>PCM-20251023-00001996</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1666,7 +1672,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>JBL0455</t>
+          <t/>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -1676,7 +1682,7 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>jubail</t>
+          <t>jeddah</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -1691,7 +1697,7 @@
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>SRAN</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -1706,17 +1712,17 @@
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>JBL0455-P2 2G_3G_LTE,JBL0473-P2 2G_3G_LTE</t>
+          <t>JED1M8066</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0560</t>
+          <t>SERIAL-20251023-0593</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2025-10-23 19:05:03</t>
+          <t>2025-10-23 17:23:01</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1734,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TT-20251023000556</t>
+          <t>TT-20251023000587</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1748,7 +1754,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-10-23 19:27:39</t>
+          <t>2025-10-23 20:50:29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1763,12 +1769,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BHAB0834</t>
+          <t>JED0271</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Region_6</t>
+          <t>Region_4</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1778,7 +1784,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001869</t>
+          <t>PCM-20251023-00001983</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1793,12 +1799,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1(2G/3G/5G) sites down under BHAB0834-P3/BHAB0834-P3 @ Sceco</t>
+          <t>BASE STATION SERVICE PROBLEM (No connection to unit)  at JED0271-G9-L8-L18-L21-NR2.6-NR3.5-SBTS-P2 @ Sceco</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1813,12 +1819,12 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001869</t>
+          <t>PCM-20251023-00001983</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>TT-20251023-01866</t>
+          <t>TT-20251023-01861</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1828,32 +1834,32 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2025-10-23 19:19:21</t>
+          <t>2025-10-23 19:17:37</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2G_3G_5G SA</t>
+          <t>5G_Cell SA</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>7116</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1863,7 +1869,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-10-23 19:19:21</t>
+          <t>2025-10-23 19:17:37</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1873,17 +1879,17 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t/>
+          <t>site impating due to load issue.</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t/>
+          <t>site impating due to load issue.</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20251023-00001858</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -1893,7 +1899,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001869</t>
+          <t>PCM-20251023-00001983</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -1903,7 +1909,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>BHAB0834</t>
+          <t/>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -1913,7 +1919,7 @@
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>mohail</t>
+          <t>jeddah</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -1923,7 +1929,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Telecom</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -1943,17 +1949,17 @@
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>BHAB0834-P3</t>
+          <t>JED0271</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0558</t>
+          <t>SERIAL-20251023-0589</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2025-10-23 19:19:27</t>
+          <t>2025-10-23 19:17:42</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1971,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TT-20251023000546</t>
+          <t>TT-20251023000586</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1985,7 +1991,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-10-23 19:04:39</t>
+          <t>2025-10-23 20:45:44</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2000,12 +2006,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>DAM2403</t>
+          <t>JED0845</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Region_1</t>
+          <t>Region_4</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2015,7 +2021,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001840</t>
+          <t>PCM-20251023-00001969</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2030,7 +2036,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1(2G/3G/LTE) sites down under DAM2403-P2/R1_DM_HWBSC01 @ Sceco</t>
+          <t>BASE STATION SERVICE PROBLEM (No connection to unit)  at JED1MN0845-NR2.6-P3 @ Sceco</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2050,12 +2056,12 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001840</t>
+          <t>PCM-20251023-00001969</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>TT-20251023-01832</t>
+          <t>TT-20251023-01899</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -2065,7 +2071,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2075,22 +2081,22 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2025-10-23 18:56:49</t>
+          <t>2025-10-23 19:45:07</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2G_3G_LTE SA</t>
+          <t>5G_Cell SA</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>21825</t>
+          <t>7116</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2100,7 +2106,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-10-23 18:56:49</t>
+          <t>2025-10-23 19:45:07</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2110,17 +2116,17 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t/>
+          <t>impating due to load issue.</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t/>
+          <t>impating due to load issue.</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20251023-00001895</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2130,7 +2136,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001840</t>
+          <t>PCM-20251023-00001969</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2140,7 +2146,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>DAM2403</t>
+          <t/>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2150,7 +2156,7 @@
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>dammam</t>
+          <t>jeddah</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2160,12 +2166,12 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Telecom</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2180,17 +2186,17 @@
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>DAM2403-P2</t>
+          <t>JED1MN0845</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0548</t>
+          <t>SERIAL-20251023-0588</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2025-10-23 18:56:50</t>
+          <t>2025-10-23 19:45:10</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2208,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TT-20251023000526</t>
+          <t>TT-20251023000566</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2222,7 +2228,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-10-23 18:09:34</t>
+          <t>2025-10-23 19:41:34</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2237,27 +2243,27 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>TLT9474</t>
+          <t>JED2004</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Region_6</t>
+          <t>Region_4</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Generator_SG</t>
+          <t>Sceco</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001771</t>
+          <t>PCM-20251023-00001888</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -2267,7 +2273,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>10(2G) 7(3G) 3(LTE) 9(5G) sites down under RYAB0634-P3 @ Generator_DG</t>
+          <t>2(2G) 2(LTE) 2(5G) sites down under JED2004-P3,JED2717-P1-VIP/JED2717-P1-VIP @ Sceco</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2287,12 +2293,12 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001771</t>
+          <t>PCM-20251023-00001888</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>TT-20251023-01728</t>
+          <t>TT-20251023-01809</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -2312,12 +2318,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2025-10-23 17:45:36</t>
+          <t>2025-10-23 18:38:31</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2G_3G_LTE_5G SA</t>
+          <t>2G_LTE_5G SA</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2337,7 +2343,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-10-23 17:45:36</t>
+          <t>2025-10-23 18:38:31</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2347,17 +2353,17 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>TLT9474</t>
+          <t>JED2004</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>TLT9474</t>
+          <t>JED2004</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001733</t>
+          <t>PCM-20251023-00001820</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2367,7 +2373,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001771</t>
+          <t>PCM-20251023-00001888</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2377,7 +2383,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>TLT9474</t>
+          <t>JED2004</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2387,7 +2393,7 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>tathleeth</t>
+          <t>jeddah</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2402,7 +2408,7 @@
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>Repeater</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2417,17 +2423,17 @@
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>TLT0390-P2-USF 2G_LTE_5G,TLT0389-P3 2G_3G_5G,RYAB0637-P2-USF 2G_3G_LTE_5G,RYAB0638-P3 2G_3G_5G,RYAB0634-P3 2G_5G,TLT0324-P3 2G_LTE,RYAB0641-P3-USF 2G_5G,RYAB0639-P2 2G_3G_5G,TLT0667-P3 2G_3G_5G,RYAB0635-P3 2G_3G_5G,RYAB0636-P3 3G</t>
+          <t>JED2004-P3 2G_LTE_5G,JED2717-P1-VIP 2G_5G</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0527</t>
+          <t>SERIAL-20251023-0568</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2025-10-23 17:45:42</t>
+          <t>2025-10-23 18:38:35</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2445,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TT-20251023000521</t>
+          <t>TT-20251023000426</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2459,7 +2465,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-10-23 18:06:09</t>
+          <t>2025-10-23 15:14:04</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2474,7 +2480,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>UKZ0162</t>
+          <t>RAB0660</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2484,17 +2490,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Generator_SG</t>
+          <t>Sceco</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001759</t>
+          <t>PCM-20251023-00001433</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2504,7 +2510,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1(2G/3G/5G) sites down under UKZ0162-P2-USF/UKZ0162-P2-USF @ Generator_SG</t>
+          <t>WCDMA CELL OUT OF USE (Resource status indication, cell disabled)  at RAB1M3660-P2-USF @ Sceco</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2524,12 +2530,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001759</t>
+          <t>PCM-20251023-00001433</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>TT-20251023-01757</t>
+          <t>TT-20251023-01193</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -2539,7 +2545,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>WCDMA CELL OUT OF USE</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2549,22 +2555,22 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2025-10-23 17:58:07</t>
+          <t>2025-10-23 13:07:09</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2G_3G SA</t>
+          <t>3G SA</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>7771</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>WCDMA CELL OUT OF USE</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2574,7 +2580,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-10-23 17:58:07</t>
+          <t>2025-10-23 13:07:09</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2584,17 +2590,17 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t/>
+          <t>HT at site</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t/>
+          <t>HT at site</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20251023-00001171</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2604,7 +2610,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001759</t>
+          <t>PCM-20251023-00001433</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2614,7 +2620,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>UKZ0162</t>
+          <t/>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -2624,7 +2630,7 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>jeddah</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
@@ -2634,12 +2640,12 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Reference_telecom</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>3G</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -2654,17 +2660,17 @@
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>UKZ0162-P2-USF</t>
+          <t>RAB1M3660</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0522</t>
+          <t>SERIAL-20251023-0427</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2025-10-23 17:58:11</t>
+          <t>2025-10-23 13:09:19</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2682,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TT-20251023000517</t>
+          <t>TT-20251022000639</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2686,7 +2692,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t/>
+          <t>Resolve</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2696,7 +2702,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-10-23 17:54:34</t>
+          <t>2025-10-22 23:36:39</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2711,12 +2717,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>MAK2845</t>
+          <t>BHR2973</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Region_5</t>
+          <t>Region_4</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2726,12 +2732,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001736</t>
+          <t>PCM-20251022-00002252</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Timeout</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2741,7 +2747,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1(2G/5G) sites down under MAK2845-FWA-P1-VIP/MAK2845-FWA-P1-VIP @ Sceco</t>
+          <t>1(2G/5G) sites down under BHR2973-P3/BHR2973-P3 @ Sceco</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2761,12 +2767,12 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001736</t>
+          <t>PCM-20251022-00002252</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>TT-20251023-01718</t>
+          <t>TT-20251022-02345</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2781,12 +2787,12 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2025-10-23 17:38:42</t>
+          <t>2025-10-22 23:27:57</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2811,7 +2817,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-10-23 17:38:42</t>
+          <t>2025-10-22 23:27:57</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2821,17 +2827,17 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>load issue</t>
+          <t/>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>load issue</t>
+          <t/>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001710</t>
+          <t/>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -2841,27 +2847,27 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001736</t>
+          <t>PCM-20251022-00002252</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t/>
+          <t>Clear_Before_Investigation</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>MAK2845</t>
+          <t>BHR2973</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t/>
+          <t>Auto Recovery</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>jeddah</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
@@ -2871,7 +2877,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Telecom</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2881,27 +2887,27 @@
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t/>
+          <t>Auto Clear</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t/>
+          <t>2025-10-23 16:17:33</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>MAK2845-FWA-P1-VIP</t>
+          <t>BHR2973-P3</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0518</t>
+          <t>SERIAL-20251022-0639</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2025-10-23 17:39:17</t>
+          <t>2025-10-22 23:28:03</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2919,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TT-20251023000514</t>
+          <t>TT-20251017000181</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2933,7 +2939,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-10-23 17:51:09</t>
+          <t>2025-10-17 11:56:09</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2948,27 +2954,27 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>ARR0915</t>
+          <t>MAK0815</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Region_1</t>
+          <t>Region_5</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Generator_DG</t>
+          <t>Sceco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001721</t>
+          <t>PCM-20251017-00000773</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Timeout</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2978,12 +2984,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1(2G/3G/LTE) sites down under ARR0915-P2-USF/AR1BSCH01 @ Generator_DG</t>
+          <t>1(2G/LTE/5G) sites down under MAK0815-P1/MAK0815-P1 @ Sceco</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2998,12 +3004,12 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001721</t>
+          <t>PCM-20251017-00000773</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>TT-20251023-01720</t>
+          <t>TT-20251017-00756</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -3013,32 +3019,32 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2025-10-23 17:44:18</t>
+          <t>2025-10-17 11:47:46</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2G_3G_LTE SA</t>
+          <t>2G_5G SA</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>21825</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -3048,7 +3054,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-10-23 17:44:18</t>
+          <t>2025-10-17 11:47:46</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -3078,7 +3084,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001721</t>
+          <t>PCM-20251017-00000773</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3088,7 +3094,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>ARR0915</t>
+          <t>MAK0815</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3098,7 +3104,7 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>arar</t>
+          <t>makkah</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
@@ -3123,22 +3129,22 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t/>
+          <t>2025-10-18 11:54:13</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>ARR0915-P2-USF</t>
+          <t>MAK0815-P1</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0515</t>
+          <t>SERIAL-20251017-0181</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2025-10-23 17:44:19</t>
+          <t>2025-10-17 11:47:51</t>
         </is>
       </c>
     </row>
@@ -3150,7 +3156,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TT-20251023000449</t>
+          <t>TT-20251016000114</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3170,7 +3176,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-10-23 15:42:49</t>
+          <t>2025-10-16 05:53:09</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3185,12 +3191,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>MAK2845</t>
+          <t>JED0145</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Region_5</t>
+          <t>Region_4</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3200,12 +3206,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001500</t>
+          <t>PCM-20251016-00000558</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Timeout</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -3215,12 +3221,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM (No connection to unit)  at MAK2845-G9-L8-L18-L21-NR2.6-NNR3.5-SBTS-FWA-P1-VIP @ Sceco</t>
+          <t>JED1W0145 Complete down  (REF:CRQ000000534621)</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -3235,12 +3241,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001500</t>
+          <t>PCM-20251016-00000558</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>TT-20251023-01186</t>
+          <t>TT-20251016-00528</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -3250,32 +3256,32 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>Wi-Fi AP Out Of Service</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2025-10-23 13:08:00</t>
+          <t>2025-10-16 03:35:21</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>5G_Cell SA</t>
+          <t>Wifi SA</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>7116</t>
+          <t>613007</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>Wi-Fi AP Out Of Service</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -3285,7 +3291,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-10-23 13:08:00</t>
+          <t>2025-10-16 03:35:21</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -3295,17 +3301,17 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>due to load issue</t>
+          <t>power issue</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>due to load issue</t>
+          <t>power issue</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001156</t>
+          <t>PCM-20251016-00000556</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3315,7 +3321,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001500</t>
+          <t>PCM-20251016-00000558</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3325,7 +3331,7 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t/>
+          <t>JED0145</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3335,7 +3341,7 @@
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>jeddah</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
@@ -3345,7 +3351,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Telecom</t>
+          <t>Reference_telecom</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3360,22 +3366,22 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t/>
+          <t>2025-10-16 04:58:59</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>MAK2845</t>
+          <t>JED1W0145</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0450</t>
+          <t>SERIAL-20251016-0115</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2025-10-23 13:08:05</t>
+          <t>2025-10-16 03:35:21</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3393,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TT-20251023000447</t>
+          <t>TT-20251014000497</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3407,7 +3413,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-10-23 15:40:49</t>
+          <t>2025-10-14 18:30:54</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3422,7 +3428,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>USMD0712</t>
+          <t>MAK0256</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3437,12 +3443,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001496</t>
+          <t>PCM-20251014-00001824</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Timeout</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -3452,7 +3458,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM (No connection to unit)  at USMD0712-GSM-UMTS-P2-USF @ Sceco</t>
+          <t>2(2G/LTE/5G) sites down under MAK0256-P2,MAK0219-P2/MAK0256-P2 @ Sceco</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -3472,12 +3478,12 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001496</t>
+          <t>PCM-20251014-00001824</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>TT-20251023-01351</t>
+          <t>TT-20251014-01628</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -3487,7 +3493,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -3497,22 +3503,22 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>2025-10-23 14:22:10</t>
+          <t>2025-10-14 16:13:37</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>5G_Cell SA</t>
+          <t>2G SA</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>7116</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -3522,7 +3528,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-10-23 14:22:10</t>
+          <t>2025-10-14 16:13:37</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -3532,17 +3538,17 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>as power alarms are active</t>
+          <t>Power issue at site</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>as power alarms are active</t>
+          <t>Power issue at site</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001342</t>
+          <t>PCM-20251014-00001576</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3552,7 +3558,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001496</t>
+          <t>PCM-20251014-00001824</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -3562,7 +3568,7 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t/>
+          <t>MAK0256</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
@@ -3582,7 +3588,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Telecom</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3602,17 +3608,17 @@
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>USMD0712</t>
+          <t>MAK0256-P2</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0448</t>
+          <t>SERIAL-20251014-0491</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>2025-10-23 14:22:22</t>
+          <t>2025-10-14 16:13:43</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3630,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TT-20251023000446</t>
+          <t>TT-20251014000257</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3644,7 +3650,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-10-23 15:38:39</t>
+          <t>2025-10-14 11:53:49</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3659,27 +3665,27 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>AQQ0036</t>
+          <t>RIY0933</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Region_6</t>
+          <t>Region_2</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sceco_STB</t>
+          <t>Sceco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001490</t>
+          <t>PCM-20251014-00001057</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Timeout</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -3689,7 +3695,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1(2G/LTE) sites down under AQQ0036-P2/AQQ0036-P2 @ Sceco_STB</t>
+          <t>2(2G) 2(LTE) sites down under RIY0933-P2,RIY2417-P3/R2_RY2_HWBSC01 (REF:TT-20251006-02255)</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -3709,12 +3715,12 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001490</t>
+          <t>PCM-20251014-00001057</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>TT-20251023-01492</t>
+          <t>TT-20251014-01065</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -3724,7 +3730,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -3734,7 +3740,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>2025-10-23 15:30:50</t>
+          <t>2025-10-07 17:19:38</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -3744,12 +3750,12 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>21825</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -3759,7 +3765,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-10-23 15:30:50</t>
+          <t>2025-10-07 17:19:38</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -3769,17 +3775,17 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t/>
+          <t>power issue at site</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t/>
+          <t>power issue at site</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20251014-00001055</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -3789,7 +3795,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001490</t>
+          <t>PCM-20251014-00001057</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -3799,7 +3805,7 @@
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>AQQ0036</t>
+          <t>RIY0933</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
@@ -3809,7 +3815,7 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>baha</t>
+          <t>riyadh</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
@@ -3819,12 +3825,12 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Reference_telecom</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>SRAN</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
@@ -3839,17 +3845,17 @@
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>AQQ0036-P2</t>
+          <t>RIY0933,RIY2417</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0447</t>
+          <t>SERIAL-20251014-0253</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>2025-10-23 15:31:06</t>
+          <t>2025-10-07 17:19:38</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3867,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TT-20251023000426</t>
+          <t>TT-20251014000194</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3881,7 +3887,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-10-23 15:14:04</t>
+          <t>2025-10-14 10:32:09</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3896,12 +3902,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>RAB0660</t>
+          <t>MAK0390</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Region_4</t>
+          <t>Region_5</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3911,12 +3917,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001433</t>
+          <t>PCM-20251014-00000896</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Timeout</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -3926,12 +3932,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>WCDMA CELL OUT OF USE (Resource status indication, cell disabled)  at RAB1M3660-P2-USF @ Sceco</t>
+          <t>1(2G/LTE/5G) sites down under MAK0390-P1-HRM/MAK0390-P1-HRM @ Sceco</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3946,12 +3952,12 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001433</t>
+          <t>PCM-20251014-00000896</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>TT-20251023-01193</t>
+          <t>TT-20251014-00895</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -3961,32 +3967,32 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>WCDMA CELL OUT OF USE</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2025-10-23 13:07:09</t>
+          <t>2025-10-14 10:23:54</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>3G SA</t>
+          <t>2G_5G SA</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>7771</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>WCDMA CELL OUT OF USE</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -3996,7 +4002,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-10-23 13:07:09</t>
+          <t>2025-10-14 10:23:54</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -4006,17 +4012,17 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>HT at site</t>
+          <t/>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>HT at site</t>
+          <t/>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001171</t>
+          <t/>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4026,7 +4032,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001433</t>
+          <t>PCM-20251014-00000896</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -4036,7 +4042,7 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t/>
+          <t>MAK0390</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
@@ -4046,7 +4052,7 @@
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>makkah</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
@@ -4056,12 +4062,12 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Reference_telecom</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>3G</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
@@ -4071,22 +4077,22 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t/>
+          <t>2025-10-14 10:32:09</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>RAB1M3660</t>
+          <t>MAK0390-P1-HRM</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0427</t>
+          <t>SERIAL-20251014-0194</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2025-10-23 13:09:19</t>
+          <t>2025-10-14 10:23:56</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4104,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TT-20251023000368</t>
+          <t>TT-20251013000282</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4118,7 +4124,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-10-23 13:58:34</t>
+          <t>2025-10-13 10:38:14</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -4133,7 +4139,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>SLW2996</t>
+          <t>DAM0314</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -4143,17 +4149,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Generator_SG</t>
+          <t>Sceco</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001278</t>
+          <t>PCM-20251013-00001250</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Timeout</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4163,12 +4169,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1(2G/3G/LTE) sites down under SLW2996-P3/R1_HF_HWBSC01 @ Generator_SG</t>
+          <t>1(2G/3G/LTE) sites down under DAM0314-P2/R1_DM_HWBSC01 @ Sceco</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -4183,12 +4189,12 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001278</t>
+          <t>PCM-20251013-00001250</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>TT-20251023-01284</t>
+          <t>TT-20251013-01275</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -4208,7 +4214,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2025-10-23 13:51:24</t>
+          <t>2025-10-13 10:29:55</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -4233,7 +4239,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-10-23 13:51:24</t>
+          <t>2025-10-13 10:29:55</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
@@ -4263,7 +4269,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001278</t>
+          <t>PCM-20251013-00001250</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -4273,7 +4279,7 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>SLW2996</t>
+          <t>DAM0314</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
@@ -4283,7 +4289,7 @@
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>hafouf</t>
+          <t>dammam</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
@@ -4313,17 +4319,17 @@
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>SLW2996-P3</t>
+          <t>DAM0314-P2</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0369</t>
+          <t>SERIAL-20251013-0282</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2025-10-23 13:51:27</t>
+          <t>2025-10-13 10:29:59</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4341,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TT-20251023000242</t>
+          <t>TT-20251012000276</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4355,7 +4361,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-10-23 10:59:14</t>
+          <t>2025-10-12 14:25:29</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4370,12 +4376,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>SMN0799</t>
+          <t>MAK0390</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Region_1</t>
+          <t>Region_5</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4385,7 +4391,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>PCM-20251023-00000878</t>
+          <t>PCM-20251012-00001337</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -4400,7 +4406,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>3(2G/3G/LTE) sites down under  SMN0830-P3-USF,SMN0800-P3,SMN0832-P3,SMN0799-P1-HUB/HB1BSCH01 @ Generator_SG</t>
+          <t>BASE STATION SERVICE PROBLEM (No connection to unit) at MAK1MN0390-NR2.6-P1 (Ref:TT-20250928-01564) @ Sceco</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -4420,12 +4426,12 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>PCM-20251023-00000878</t>
+          <t>PCM-20251012-00001337</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>TT-20251023-00931</t>
+          <t>TT-20251002-02312</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -4435,32 +4441,32 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>2025-10-23 10:52:07</t>
+          <t>2025-09-28 14:14:38</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2G_3G_LTE SA</t>
+          <t>5G SA</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>21825</t>
+          <t>7116</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -4470,7 +4476,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-10-23 10:52:07</t>
+          <t>2025-09-28 14:14:38</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -4480,17 +4486,17 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t/>
+          <t>5G sector down / Access issue as site located on hotel and closed by Judicial court</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t/>
+          <t>5G sector down / Access issue as site located on hotel and closed by Judicial court</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20251002-00002022</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4500,7 +4506,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>PCM-20251023-00000878</t>
+          <t>PCM-20251012-00001337</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4510,7 +4516,7 @@
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>SMN0799</t>
+          <t/>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
@@ -4520,7 +4526,7 @@
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>hafr</t>
+          <t>makkah</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
@@ -4530,12 +4536,12 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Reference_telecom</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
@@ -4545,22 +4551,22 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t/>
+          <t>2025-10-12 14:25:29</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>SMN0799-P1-HUB</t>
+          <t>MAK1MN0390</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0243</t>
+          <t>SERIAL-20251012-0359</t>
         </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>2025-10-23 10:52:09</t>
+          <t>2025-09-28 14:16:00</t>
         </is>
       </c>
     </row>
@@ -4572,7 +4578,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TT-20251023000007</t>
+          <t>TT-20251009000319</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4592,7 +4598,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-10-23 00:09:34</t>
+          <t>2025-10-09 12:41:44</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4607,12 +4613,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>BUR0056</t>
+          <t>MHL0138</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Region_2</t>
+          <t>Region_6</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4622,7 +4628,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>PCM-20251023-00000018</t>
+          <t>PCM-20251009-00001098</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -4637,12 +4643,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>3(2G) 2(3G) 3(LTE) sites down under BUR0616-P3,BUR0051-FWA-P1-VIP,BUR0056-P2/R2_BR1_HWBSC01 @ Sceco</t>
+          <t>1 (3G) site down at MHL1M4138-P3 Under MHL1M4138-P3(REF::TT-20250927-01025) @ Sceco</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -4657,12 +4663,12 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>PCM-20251023-00000018</t>
+          <t>PCM-20251009-00001098</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>TT-20251023-00008</t>
+          <t>TT-20251009-00878</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -4672,32 +4678,32 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>WCDMA BASE STATION OUT OF USE</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>2025-10-23 00:00:24</t>
+          <t>2025-09-27 23:41:35</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2G_3G_LTE SA</t>
+          <t>3G SA</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>21825</t>
+          <t>7786</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>WCDMA BASE STATION OUT OF USE</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -4707,7 +4713,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-10-23 00:00:24</t>
+          <t>2025-09-27 23:41:35</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -4717,23 +4723,17 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>Dear Team,
-Hub:-  BUR0056
-Suspecting power issue at hub site and kindly send EM-FLM team to check and resolve issue at site.
-Kindly update TT under EM FLM</t>
+          <t>power issue at site</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>Dear Team,
-Hub:-  BUR0056
-Suspecting power issue at hub site and kindly send EM-FLM team to check and resolve issue at site.
-Kindly update TT under EM FLM</t>
+          <t>power issue at site</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>PCM-20251023-00000015</t>
+          <t>PCM-20251009-00000819</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>PCM-20251023-00000018</t>
+          <t>PCM-20251009-00001098</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>BUR0056</t>
+          <t>MHL1M4138</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>buraidah</t>
+          <t>mohail</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>SRAN</t>
+          <t>3G</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
@@ -4788,22 +4788,22 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t/>
+          <t>2025-10-19 10:11:15</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>BUR0616-P3 2G_LTE,BUR0051-FWA-P1-VIP 2G_3G_LTE,BUR0056-P2 2G_3G_LTE</t>
+          <t>MHL1M4138</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0007</t>
+          <t>SERIAL-20251009-0319</t>
         </is>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>2025-10-23 00:00:26</t>
+          <t>2025-09-27 23:42:14</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TT-20251022000639</t>
+          <t>TT-20250930000412</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Resolve</t>
+          <t/>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-10-22 23:36:39</t>
+          <t>2025-09-30 14:59:49</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4850,12 +4850,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>BHR2973</t>
+          <t>MAK0390</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Region_4</t>
+          <t>Region_5</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>PCM-20251022-00002252</t>
+          <t>PCM-20250930-00001565</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -4880,12 +4880,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1(2G/5G) sites down under BHR2973-P3/BHR2973-P3 @ Sceco</t>
+          <t>1(5G) sites down under MAK0390-NR2.6-P1 @ Sceco</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -4900,12 +4900,12 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>PCM-20251022-00002252</t>
+          <t>PCM-20250930-00001565</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>TT-20251022-02345</t>
+          <t>TT-20250928-01564</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -4915,32 +4915,32 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>NE3SWS AGENT NOT RESPONDING TO REQUESTS</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>2025-10-22 23:27:57</t>
+          <t>2025-09-28 14:13:17</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2G SA</t>
+          <t>5G SA</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>9047</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>NE3SWS AGENT NOT RESPONDING TO REQUESTS</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-10-22 23:27:57</t>
+          <t>2025-09-28 14:13:17</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -4960,17 +4960,17 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t/>
+          <t>Access issue as site located on hotel and closed by Judicial court and after confirm from spoc TE &amp; EM escalated to GLI Domain</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t/>
+          <t>Access issue as site located on hotel and closed by Judicial court and after confirm from spoc TE &amp; EM escalated to GLI Domain</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20250928-00001635</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -4980,27 +4980,27 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>PCM-20251022-00002252</t>
+          <t>PCM-20250930-00001565</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>Clear_Before_Investigation</t>
+          <t/>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>BHR2973</t>
+          <t>MAK0390</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>Auto Recovery</t>
+          <t/>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>makkah</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Telecom</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -5020,27 +5020,27 @@
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>Auto Clear</t>
+          <t/>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>2025-10-23 16:17:33</t>
+          <t/>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>BHR2973-P3</t>
+          <t>MAK0390-NR2.6-P1</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>SERIAL-20251022-0639</t>
+          <t>SERIAL-20250930-0409</t>
         </is>
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>2025-10-22 23:28:03</t>
+          <t>2025-09-28 14:13:20</t>
         </is>
       </c>
     </row>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TT-20251017000181</t>
+          <t>TT-20250926000056</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-10-17 11:56:09</t>
+          <t>2025-09-26 04:31:49</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -5087,7 +5087,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>MAK0815</t>
+          <t>MAK0390</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>PCM-20251017-00000773</t>
+          <t>PCM-20250926-00000245</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1(2G/LTE/5G) sites down under MAK0815-P1/MAK0815-P1 @ Sceco</t>
+          <t>BASE STATION SERVICE PROBLEM (No connection to unit)  at MAK1MN0390-NR2.6-P1 @ Sceco</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -5137,12 +5137,12 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>PCM-20251017-00000773</t>
+          <t>PCM-20250926-00000245</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>TT-20251017-00756</t>
+          <t>TT-20250926-00215</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -5162,22 +5162,22 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>2025-10-17 11:47:46</t>
+          <t>2025-09-26 03:45:55</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2G_5G SA</t>
+          <t>5G_Cell SA</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>7116</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-10-17 11:47:46</t>
+          <t>2025-09-26 03:45:55</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -5197,17 +5197,17 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t/>
+          <t>GLI Site under access issue as located on hotel and closed by Judicial court, and confirmed to escalate till secure access</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t/>
+          <t>GLI Site under access issue as located on hotel and closed by Judicial court, and confirmed to escalate till secure access</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20250926-00000212</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>PCM-20251017-00000773</t>
+          <t>PCM-20250926-00000245</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>MAK0815</t>
+          <t/>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Telecom</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
@@ -5262,22 +5262,22 @@
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>2025-10-18 11:54:13</t>
+          <t>2025-09-26 04:31:49</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>MAK0815-P1</t>
+          <t>MAK1MN0390</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>SERIAL-20251017-0181</t>
+          <t>SERIAL-20250926-0056</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>2025-10-17 11:47:51</t>
+          <t>2025-09-26 03:47:45</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TT-20251016000114</t>
+          <t>TT-20250822000492</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-10-16 05:53:09</t>
+          <t>2025-08-22 19:57:39</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -5324,22 +5324,22 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>JED0145</t>
+          <t>AKR0339</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Region_4</t>
+          <t>Region_5</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sceco</t>
+          <t>Generator_SG</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>PCM-20251016-00000558</t>
+          <t>PCM-20250822-00001816</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>JED1W0145 Complete down  (REF:CRQ000000534621)</t>
+          <t>5(2G) 5(3G) 3(LTE) 3(5G) sites down under MSE0624-P2-USF,AKR0339-P2-USF, AKR0971-P3,MDQ0970-P3,MDQ2367-P2-USF/MDQ2367-P2-USF @ Generator_SG</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -5374,12 +5374,12 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>PCM-20251016-00000558</t>
+          <t>PCM-20250822-00001816</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>TT-20251016-00528</t>
+          <t>TT-20250822-01600</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -5389,32 +5389,32 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Wi-Fi AP Out Of Service</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2025-10-16 03:35:21</t>
+          <t>2025-08-22 18:58:05</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>Wifi SA</t>
+          <t>2G_3G_LTE_5G SA</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>613007</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Wi-Fi AP Out Of Service</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-10-16 03:35:21</t>
+          <t>2025-08-22 18:58:05</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -5434,17 +5434,21 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>power issue</t>
+          <t>Hub: AKR0339, MDQ2367, MSE0624
+We are observing RSL-99.00 at far end, kindly visit the site and check the issue as we are suspecting power issue at site.
+Kindly update TT under EM, FLM</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>power issue</t>
+          <t>Hub: AKR0339, MDQ2367, MSE0624
+We are observing RSL-99.00 at far end, kindly visit the site and check the issue as we are suspecting power issue at site.
+Kindly update TT under EM, FLM</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>PCM-20251016-00000556</t>
+          <t>PCM-20250822-00001797</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5454,7 +5458,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>PCM-20251016-00000558</t>
+          <t>PCM-20250822-00001816</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -5464,7 +5468,7 @@
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>JED0145</t>
+          <t>AKR0339</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
@@ -5474,7 +5478,7 @@
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>makkah</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
@@ -5484,7 +5488,7 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Reference_telecom</t>
+          <t>Telecom</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -5499,22 +5503,22 @@
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>2025-10-16 04:58:59</t>
+          <t/>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>JED1W0145</t>
+          <t>MSE0624-P2-USF 3G_LTE,MDQ2367-P2-USF 2G_3G_5G,AKR0971-P3 2G_3G,MDQ0970-P3 2G_3G</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>SERIAL-20251016-0115</t>
+          <t>SERIAL-20250822-0492</t>
         </is>
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>2025-10-16 03:35:21</t>
+          <t>2025-08-22 18:58:10</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5530,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TT-20251014000497</t>
+          <t>TT-20250616000787</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5546,7 +5550,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-10-14 18:30:54</t>
+          <t>2025-06-16 23:59:08</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -5561,22 +5565,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>MAK0256</t>
+          <t>RIY0274</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Region_5</t>
+          <t>Region_2</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sceco</t>
+          <t>Generator_SG</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001824</t>
+          <t>PCM-20250616-00002875</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -5591,12 +5595,12 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2(2G/LTE/5G) sites down under MAK0256-P2,MAK0219-P2/MAK0256-P2 @ Sceco</t>
+          <t>1(2G/LTE) sites down under RIY0274-P3/R2_RY1_HWBSC01 @ Generator_SG</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -5611,12 +5615,12 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001824</t>
+          <t>PCM-20250616-00002875</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>TT-20251014-01628</t>
+          <t>TT-20250616-03062</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -5626,7 +5630,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -5636,22 +5640,22 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>2025-10-14 16:13:37</t>
+          <t>2025-06-16 23:50:43</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2G SA</t>
+          <t>2G_LTE SA</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>21825</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -5661,7 +5665,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-10-14 16:13:37</t>
+          <t>2025-06-16 23:50:43</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -5671,17 +5675,17 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>Power issue at site</t>
+          <t/>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>Power issue at site</t>
+          <t/>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001576</t>
+          <t/>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -5691,7 +5695,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001824</t>
+          <t>PCM-20250616-00002875</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -5701,7 +5705,7 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>MAK0256</t>
+          <t>RIY0274</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
@@ -5711,7 +5715,7 @@
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>riyadh</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
@@ -5741,17 +5745,17 @@
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>MAK0256-P2</t>
+          <t>RIY0274-P3</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
-          <t>SERIAL-20251014-0491</t>
+          <t>SERIAL-20250616-0791</t>
         </is>
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>2025-10-14 16:13:43</t>
+          <t>2025-06-16 23:50:46</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5767,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TT-20251014000257</t>
+          <t>TT-20250529000666</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5783,7 +5787,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-10-14 11:53:49</t>
+          <t>2025-05-29 17:27:08</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -5798,7 +5802,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>RIY0933</t>
+          <t>RIY2903</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -5813,7 +5817,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001057</t>
+          <t>PCM-20250529-00002138</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -5828,12 +5832,12 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2(2G) 2(LTE) sites down under RIY0933-P2,RIY2417-P3/R2_RY2_HWBSC01 (REF:TT-20251006-02255)</t>
+          <t>1(2G/LTE/5G) sites down under RIY2903-P3 @ Sceco (Ref:TT-20250514-01549)</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -5848,12 +5852,12 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001057</t>
+          <t>PCM-20250529-00002138</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>TT-20251014-01065</t>
+          <t>TT-20250529-02091</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -5863,7 +5867,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>gNodeB Out of Service</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -5873,22 +5877,22 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2025-10-07 17:19:38</t>
+          <t>2025-05-14 13:02:01</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2G_LTE SA</t>
+          <t>2G SA</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>21825</t>
+          <t>29840</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>gNodeB Out of Service</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -5898,7 +5902,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-10-07 17:19:38</t>
+          <t>2025-05-14 13:02:01</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -5908,17 +5912,17 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>power issue at site</t>
+          <t/>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>power issue at site</t>
+          <t/>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001055</t>
+          <t/>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -5928,7 +5932,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001057</t>
+          <t>PCM-20250529-00002138</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
@@ -5938,7 +5942,7 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>RIY0933</t>
+          <t>RIY2903</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
@@ -5958,7 +5962,7 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Reference_telecom</t>
+          <t>Reference_EM</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5973,22 +5977,22 @@
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t/>
+          <t>2025-10-22 17:06:35</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>RIY0933,RIY2417</t>
+          <t>RIY2903</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
         <is>
-          <t>SERIAL-20251014-0253</t>
+          <t>SERIAL-20250529-0670</t>
         </is>
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>2025-10-07 17:19:38</t>
+          <t>2025-05-14 13:02:01</t>
         </is>
       </c>
     </row>
@@ -6000,7 +6004,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TT-20251014000194</t>
+          <t>TT-20250421000285</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6020,7 +6024,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-10-14 10:32:09</t>
+          <t>2025-04-21 12:08:58</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -6035,22 +6039,22 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>MAK0390</t>
+          <t>RIY2486</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Region_5</t>
+          <t>Region_2</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sceco</t>
+          <t>Generator_SG</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>PCM-20251014-00000896</t>
+          <t>PCM-20250421-00001074</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -6065,12 +6069,12 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1(2G/LTE/5G) sites down under MAK0390-P1-HRM/MAK0390-P1-HRM @ Sceco</t>
+          <t>1(2G/LTE) sites down under RIY2486-P3-VIP-RIYSEASON/R2_RY1_HWBSC01 @ Generator_SG (Ref:TT-20240131-00081)</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -6085,12 +6089,12 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>PCM-20251014-00000896</t>
+          <t>PCM-20250421-00001074</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>TT-20251014-00895</t>
+          <t>TT-20250421-01118</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -6100,32 +6104,32 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>2025-10-14 10:23:54</t>
+          <t>2024-01-31 01:13:03</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2G_5G SA</t>
+          <t>2G_LTE SA</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>21825</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -6135,7 +6139,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-10-14 10:23:54</t>
+          <t>2024-01-31 01:13:03</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -6165,7 +6169,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>PCM-20251014-00000896</t>
+          <t>PCM-20250421-00001074</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -6175,7 +6179,7 @@
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>MAK0390</t>
+          <t>RIY2486</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
@@ -6185,7 +6189,7 @@
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>riyadh</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
@@ -6195,12 +6199,12 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Reference_EM</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>SRAN</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
@@ -6210,22 +6214,22 @@
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>2025-10-14 10:32:09</t>
+          <t/>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>MAK0390-P1-HRM</t>
+          <t>RIY2486</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>SERIAL-20251014-0194</t>
+          <t>SERIAL-20250421-0285</t>
         </is>
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>2025-10-14 10:23:56</t>
+          <t>2024-01-31 01:13:03</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6241,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TT-20251013000282</t>
+          <t>TT-20250215000219</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6257,7 +6261,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-10-13 10:38:14</t>
+          <t>2025-02-15 11:32:08</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -6272,12 +6276,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>DAM0314</t>
+          <t>MKJD0649</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Region_1</t>
+          <t>Region_4</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -6287,7 +6291,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>PCM-20251013-00001250</t>
+          <t>PCM-20250215-00000830</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -6302,12 +6306,12 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1(2G/3G/LTE) sites down under DAM0314-P2/R1_DM_HWBSC01 @ Sceco</t>
+          <t>1(2G/LTE) sites down under MKJD0649-P3 @ Sceco</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -6322,12 +6326,12 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>PCM-20251013-00001250</t>
+          <t>PCM-20250215-00000830</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>TT-20251013-01275</t>
+          <t>TT-20250215-00867</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -6337,7 +6341,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -6347,22 +6351,22 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>2025-10-13 10:29:55</t>
+          <t>2025-02-15 11:23:40</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2G_3G_LTE SA</t>
+          <t>2G_LTE SA</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>21825</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -6372,7 +6376,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-10-13 10:29:55</t>
+          <t>2025-02-15 11:23:40</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
@@ -6402,7 +6406,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>PCM-20251013-00001250</t>
+          <t>PCM-20250215-00000830</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -6412,7 +6416,7 @@
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>DAM0314</t>
+          <t/>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
@@ -6422,7 +6426,7 @@
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>dammam</t>
+          <t>jeddah</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
@@ -6452,17 +6456,17 @@
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>DAM0314-P2</t>
+          <t>MKJD0649-P3</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>SERIAL-20251013-0282</t>
+          <t>SERIAL-20250215-0219</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>2025-10-13 10:29:59</t>
+          <t>2025-02-15 11:23:44</t>
         </is>
       </c>
     </row>
@@ -6474,7 +6478,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TT-20251012000276</t>
+          <t>TT-20250105000808</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6494,7 +6498,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-10-12 14:25:29</t>
+          <t>2025-01-05 22:45:38</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -6509,22 +6513,22 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>MAK0390</t>
+          <t>JBL2138</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Region_5</t>
+          <t>Region_1</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sceco</t>
+          <t>Generator_SG</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>PCM-20251012-00001337</t>
+          <t>PCM-20250105-00002270</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -6539,12 +6543,12 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM (No connection to unit) at MAK1MN0390-NR2.6-P1 (Ref:TT-20250928-01564) @ Sceco</t>
+          <t>1(2G/3G/LTE) sites down under JBL2138-P3/R1_JB_HWBSC01 @ Generator_SG</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -6559,12 +6563,12 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>PCM-20251012-00001337</t>
+          <t>PCM-20250105-00002270</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>TT-20251002-02312</t>
+          <t>TT-20250105-02466</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -6574,7 +6578,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>OML Fault</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -6584,22 +6588,22 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>2025-09-28 14:14:38</t>
+          <t>2025-01-05 22:38:30</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>5G SA</t>
+          <t>2G_3G_LTE SA</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>7116</t>
+          <t>21807</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>OML Fault</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -6609,7 +6613,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-09-28 14:14:38</t>
+          <t>2025-01-05 22:38:30</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
@@ -6619,17 +6623,17 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>5G sector down / Access issue as site located on hotel and closed by Judicial court</t>
+          <t/>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>5G sector down / Access issue as site located on hotel and closed by Judicial court</t>
+          <t/>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>PCM-20251002-00002022</t>
+          <t/>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -6639,7 +6643,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>PCM-20251012-00001337</t>
+          <t>PCM-20250105-00002270</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
@@ -6659,7 +6663,7 @@
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>jubail</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
@@ -6669,12 +6673,12 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Reference_telecom</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
@@ -6684,2157 +6688,20 @@
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>2025-10-12 14:25:29</t>
+          <t/>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>MAK1MN0390</t>
+          <t>JBL2138-P3</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>SERIAL-20251012-0359</t>
+          <t>SERIAL-20250105-0808</t>
         </is>
       </c>
       <c r="AU28" t="inlineStr">
-        <is>
-          <t>2025-09-28 14:16:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>TT-20251009000319</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Running</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2025-10-09 12:41:44</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>MHL0138</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Region_6</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Sceco</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>PCM-20251009-00001098</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Timeout</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>1 (3G) site down at MHL1M4138-P3 Under MHL1M4138-P3(REF::TT-20250927-01025) @ Sceco</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Outage</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>PCM-20251009-00001098</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>TT-20251009-00878</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>FLM_EM</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>WCDMA BASE STATION OUT OF USE</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>2025-09-27 23:41:35</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>3G SA</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>7786</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>WCDMA BASE STATION OUT OF USE</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>2025-09-27 23:41:35</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE29" t="inlineStr">
-        <is>
-          <t>power issue at site</t>
-        </is>
-      </c>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>power issue at site</t>
-        </is>
-      </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>PCM-20251009-00000819</t>
-        </is>
-      </c>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>PCM-20251009-00001098</t>
-        </is>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>MHL1M4138</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>mohail</t>
-        </is>
-      </c>
-      <c r="AN29" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Telecom</t>
-        </is>
-      </c>
-      <c r="AP29" t="inlineStr">
-        <is>
-          <t>3G</t>
-        </is>
-      </c>
-      <c r="AQ29" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR29" t="inlineStr">
-        <is>
-          <t>2025-10-19 10:11:15</t>
-        </is>
-      </c>
-      <c r="AS29" t="inlineStr">
-        <is>
-          <t>MHL1M4138</t>
-        </is>
-      </c>
-      <c r="AT29" t="inlineStr">
-        <is>
-          <t>SERIAL-20251009-0319</t>
-        </is>
-      </c>
-      <c r="AU29" t="inlineStr">
-        <is>
-          <t>2025-09-27 23:42:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>TT-20250930000412</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Running</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2025-09-30 14:59:49</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>MAK0390</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Region_5</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Sceco</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>PCM-20250930-00001565</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Timeout</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>1(5G) sites down under MAK0390-NR2.6-P1 @ Sceco</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Outage</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>PCM-20250930-00001565</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>TT-20250928-01564</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>FLM_EM</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>NE3SWS AGENT NOT RESPONDING TO REQUESTS</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>2025-09-28 14:13:17</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>5G SA</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>9047</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>NE3SWS AGENT NOT RESPONDING TO REQUESTS</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>2025-09-28 14:13:17</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE30" t="inlineStr">
-        <is>
-          <t>Access issue as site located on hotel and closed by Judicial court and after confirm from spoc TE &amp; EM escalated to GLI Domain</t>
-        </is>
-      </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>Access issue as site located on hotel and closed by Judicial court and after confirm from spoc TE &amp; EM escalated to GLI Domain</t>
-        </is>
-      </c>
-      <c r="AG30" t="inlineStr">
-        <is>
-          <t>PCM-20250928-00001635</t>
-        </is>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>PCM-20250930-00001565</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>MAK0390</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>makkah</t>
-        </is>
-      </c>
-      <c r="AN30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Telecom</t>
-        </is>
-      </c>
-      <c r="AP30" t="inlineStr">
-        <is>
-          <t>2G</t>
-        </is>
-      </c>
-      <c r="AQ30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS30" t="inlineStr">
-        <is>
-          <t>MAK0390-NR2.6-P1</t>
-        </is>
-      </c>
-      <c r="AT30" t="inlineStr">
-        <is>
-          <t>SERIAL-20250930-0409</t>
-        </is>
-      </c>
-      <c r="AU30" t="inlineStr">
-        <is>
-          <t>2025-09-28 14:13:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>TT-20250926000056</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Running</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2025-09-26 04:31:49</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>MAK0390</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Region_5</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Sceco</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>PCM-20250926-00000245</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Timeout</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>BASE STATION SERVICE PROBLEM (No connection to unit)  at MAK1MN0390-NR2.6-P1 @ Sceco</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Outage</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>PCM-20250926-00000245</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>TT-20250926-00215</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>FLM_EM</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>2025-09-26 03:45:55</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>5G_Cell SA</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>7116</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>2025-09-26 03:45:55</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>GLI Site under access issue as located on hotel and closed by Judicial court, and confirmed to escalate till secure access</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>GLI Site under access issue as located on hotel and closed by Judicial court, and confirmed to escalate till secure access</t>
-        </is>
-      </c>
-      <c r="AG31" t="inlineStr">
-        <is>
-          <t>PCM-20250926-00000212</t>
-        </is>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>PCM-20250926-00000245</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>makkah</t>
-        </is>
-      </c>
-      <c r="AN31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Telecom</t>
-        </is>
-      </c>
-      <c r="AP31" t="inlineStr">
-        <is>
-          <t>5G</t>
-        </is>
-      </c>
-      <c r="AQ31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR31" t="inlineStr">
-        <is>
-          <t>2025-09-26 04:31:49</t>
-        </is>
-      </c>
-      <c r="AS31" t="inlineStr">
-        <is>
-          <t>MAK1MN0390</t>
-        </is>
-      </c>
-      <c r="AT31" t="inlineStr">
-        <is>
-          <t>SERIAL-20250926-0056</t>
-        </is>
-      </c>
-      <c r="AU31" t="inlineStr">
-        <is>
-          <t>2025-09-26 03:47:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>TT-20250822000492</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Running</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2025-08-22 19:57:39</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>AKR0339</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Region_5</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Generator_SG</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>PCM-20250822-00001816</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Timeout</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>5(2G) 5(3G) 3(LTE) 3(5G) sites down under MSE0624-P2-USF,AKR0339-P2-USF, AKR0971-P3,MDQ0970-P3,MDQ2367-P2-USF/MDQ2367-P2-USF @ Generator_SG</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Outage</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>PCM-20250822-00001816</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>TT-20250822-01600</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>FLM_EM</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>2025-08-22 18:58:05</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>2G_3G_LTE_5G SA</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>7706</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>2025-08-22 18:58:05</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE32" t="inlineStr">
-        <is>
-          <t>Hub: AKR0339, MDQ2367, MSE0624
-We are observing RSL-99.00 at far end, kindly visit the site and check the issue as we are suspecting power issue at site.
-Kindly update TT under EM, FLM</t>
-        </is>
-      </c>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>Hub: AKR0339, MDQ2367, MSE0624
-We are observing RSL-99.00 at far end, kindly visit the site and check the issue as we are suspecting power issue at site.
-Kindly update TT under EM, FLM</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>PCM-20250822-00001797</t>
-        </is>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>PCM-20250822-00001816</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>AKR0339</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>makkah</t>
-        </is>
-      </c>
-      <c r="AN32" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Telecom</t>
-        </is>
-      </c>
-      <c r="AP32" t="inlineStr">
-        <is>
-          <t>2G</t>
-        </is>
-      </c>
-      <c r="AQ32" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR32" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS32" t="inlineStr">
-        <is>
-          <t>MSE0624-P2-USF 3G_LTE,MDQ2367-P2-USF 2G_3G_5G,AKR0971-P3 2G_3G,MDQ0970-P3 2G_3G</t>
-        </is>
-      </c>
-      <c r="AT32" t="inlineStr">
-        <is>
-          <t>SERIAL-20250822-0492</t>
-        </is>
-      </c>
-      <c r="AU32" t="inlineStr">
-        <is>
-          <t>2025-08-22 18:58:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>TT-20250616000787</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Running</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2025-06-16 23:59:08</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>RIY0274</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Region_2</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Generator_SG</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>PCM-20250616-00002875</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Timeout</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>1(2G/LTE) sites down under RIY0274-P3/R2_RY1_HWBSC01 @ Generator_SG</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Outage</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>PCM-20250616-00002875</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>TT-20250616-03062</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>FLM_EM</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>CSL Fault</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>2025-06-16 23:50:43</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>2G_LTE SA</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>21825</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>CSL Fault</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>2025-06-16 23:50:43</t>
-        </is>
-      </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>PCM-20250616-00002875</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>RIY0274</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>riyadh</t>
-        </is>
-      </c>
-      <c r="AN33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>EM</t>
-        </is>
-      </c>
-      <c r="AP33" t="inlineStr">
-        <is>
-          <t>2G</t>
-        </is>
-      </c>
-      <c r="AQ33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS33" t="inlineStr">
-        <is>
-          <t>RIY0274-P3</t>
-        </is>
-      </c>
-      <c r="AT33" t="inlineStr">
-        <is>
-          <t>SERIAL-20250616-0791</t>
-        </is>
-      </c>
-      <c r="AU33" t="inlineStr">
-        <is>
-          <t>2025-06-16 23:50:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>TT-20250529000666</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Running</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2025-05-29 17:27:08</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>RIY2903</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Region_2</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Sceco</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>PCM-20250529-00002138</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Timeout</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>1(2G/LTE/5G) sites down under RIY2903-P3 @ Sceco (Ref:TT-20250514-01549)</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Outage</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>PCM-20250529-00002138</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>TT-20250529-02091</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>FLM_EM</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>gNodeB Out of Service</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>2025-05-14 13:02:01</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>2G SA</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>29840</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>gNodeB Out of Service</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>2025-05-14 13:02:01</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG34" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>PCM-20250529-00002138</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>RIY2903</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>riyadh</t>
-        </is>
-      </c>
-      <c r="AN34" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Reference_EM</t>
-        </is>
-      </c>
-      <c r="AP34" t="inlineStr">
-        <is>
-          <t>SRAN</t>
-        </is>
-      </c>
-      <c r="AQ34" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR34" t="inlineStr">
-        <is>
-          <t>2025-10-22 17:06:35</t>
-        </is>
-      </c>
-      <c r="AS34" t="inlineStr">
-        <is>
-          <t>RIY2903</t>
-        </is>
-      </c>
-      <c r="AT34" t="inlineStr">
-        <is>
-          <t>SERIAL-20250529-0670</t>
-        </is>
-      </c>
-      <c r="AU34" t="inlineStr">
-        <is>
-          <t>2025-05-14 13:02:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>TT-20250421000285</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Running</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2025-04-21 12:08:58</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>RIY2486</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Region_2</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Generator_SG</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>PCM-20250421-00001074</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Timeout</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>1(2G/LTE) sites down under RIY2486-P3-VIP-RIYSEASON/R2_RY1_HWBSC01 @ Generator_SG (Ref:TT-20240131-00081)</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Outage</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>PCM-20250421-00001074</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>TT-20250421-01118</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>FLM_EM</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>CSL Fault</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>2024-01-31 01:13:03</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>2G_LTE SA</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>21825</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>CSL Fault</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>2024-01-31 01:13:03</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>PCM-20250421-00001074</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>RIY2486</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>riyadh</t>
-        </is>
-      </c>
-      <c r="AN35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Reference_EM</t>
-        </is>
-      </c>
-      <c r="AP35" t="inlineStr">
-        <is>
-          <t>SRAN</t>
-        </is>
-      </c>
-      <c r="AQ35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS35" t="inlineStr">
-        <is>
-          <t>RIY2486</t>
-        </is>
-      </c>
-      <c r="AT35" t="inlineStr">
-        <is>
-          <t>SERIAL-20250421-0285</t>
-        </is>
-      </c>
-      <c r="AU35" t="inlineStr">
-        <is>
-          <t>2024-01-31 01:13:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>TT-20250215000219</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Running</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2025-02-15 11:32:08</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>MKJD0649</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Region_4</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Sceco</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>PCM-20250215-00000830</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Timeout</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>1(2G/LTE) sites down under MKJD0649-P3 @ Sceco</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Outage</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>PCM-20250215-00000830</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>TT-20250215-00867</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>FLM_EM</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>2025-02-15 11:23:40</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>2G_LTE SA</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>7706</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>2025-02-15 11:23:40</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>PCM-20250215-00000830</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>jeddah</t>
-        </is>
-      </c>
-      <c r="AN36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>EM</t>
-        </is>
-      </c>
-      <c r="AP36" t="inlineStr">
-        <is>
-          <t>2G</t>
-        </is>
-      </c>
-      <c r="AQ36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS36" t="inlineStr">
-        <is>
-          <t>MKJD0649-P3</t>
-        </is>
-      </c>
-      <c r="AT36" t="inlineStr">
-        <is>
-          <t>SERIAL-20250215-0219</t>
-        </is>
-      </c>
-      <c r="AU36" t="inlineStr">
-        <is>
-          <t>2025-02-15 11:23:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>TT-20250105000808</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Running</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2025-01-05 22:45:38</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>JBL2138</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Region_1</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Generator_SG</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>PCM-20250105-00002270</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Timeout</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>1(2G/3G/LTE) sites down under JBL2138-P3/R1_JB_HWBSC01 @ Generator_SG</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Outage</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>PCM-20250105-00002270</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>TT-20250105-02466</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>FLM_EM</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>OML Fault</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>2025-01-05 22:38:30</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>2G_3G_LTE SA</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>21807</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>OML Fault</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>2025-01-05 22:38:30</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>PCM-20250105-00002270</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>jubail</t>
-        </is>
-      </c>
-      <c r="AN37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>EM</t>
-        </is>
-      </c>
-      <c r="AP37" t="inlineStr">
-        <is>
-          <t>2G</t>
-        </is>
-      </c>
-      <c r="AQ37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS37" t="inlineStr">
-        <is>
-          <t>JBL2138-P3</t>
-        </is>
-      </c>
-      <c r="AT37" t="inlineStr">
-        <is>
-          <t>SERIAL-20250105-0808</t>
-        </is>
-      </c>
-      <c r="AU37" t="inlineStr">
         <is>
           <t>2025-01-05 22:38:37</t>
         </is>

--- a/TMS_PCMs.xlsx
+++ b/TMS_PCMs.xlsx
@@ -306,7 +306,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TT-20251023000622</t>
+          <t>TT-20251024000043</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -326,7 +326,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-23 22:53:19</t>
+          <t>2025-10-24 03:23:39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -341,12 +341,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>RIY2983</t>
+          <t>HAW0293</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Region_2</t>
+          <t>Region_4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -356,7 +356,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>PCM-20251023-00002139</t>
+          <t>PCM-20251024-00000171</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -371,12 +371,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2(2G) sites down under RIY2983-P3,RIY2575-P3/R2_RY4_HWBSC01 @ Generator_SG</t>
+          <t>1(2G/3G/5G) sites down under HAW0293-P2/HAW0293-P2 @ Sceco</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -391,12 +391,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>PCM-20251023-00002139</t>
+          <t>PCM-20251024-00000171</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>TT-20251023-02112</t>
+          <t>TT-20251024-00200</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -406,7 +406,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -416,22 +416,22 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>2025-10-23 22:19:30</t>
+          <t>2025-10-24 03:15:23</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2G SA</t>
+          <t>2G_3G SA</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>21825</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -441,7 +441,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-10-23 22:19:30</t>
+          <t>2025-10-24 03:15:23</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -451,23 +451,17 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>Dear Team,
-Hub:- RIY2983
-Suspecting power issue at hub site and kindly send EM-FLM team to check and resolve issue at site.
-Kindly update TT under EM FLM</t>
+          <t/>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Dear Team,
-Hub:- RIY2983
-Suspecting power issue at hub site and kindly send EM-FLM team to check and resolve issue at site.
-Kindly update TT under EM FLM</t>
+          <t/>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>PCM-20251023-00002115</t>
+          <t/>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -477,7 +471,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>PCM-20251023-00002139</t>
+          <t>PCM-20251024-00000171</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -487,7 +481,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>RIY2983</t>
+          <t>HAW0293</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -497,7 +491,7 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>taif</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -507,12 +501,12 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Telecom</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>SRAN</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -527,17 +521,17 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>RIY2575-P3 2G,RIY2983-P3 2G</t>
+          <t>HAW0293-P2</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0626</t>
+          <t>SERIAL-20251024-0042</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>2025-10-23 22:19:32</t>
+          <t>2025-10-24 03:15:26</t>
         </is>
       </c>
     </row>
@@ -549,7 +543,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TT-20251023000616</t>
+          <t>TT-20251024000039</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -569,7 +563,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-10-23 22:21:39</t>
+          <t>2025-10-24 03:14:39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -584,12 +578,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>WJZ0068</t>
+          <t>MAK2246</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Region_6</t>
+          <t>Region_5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -599,7 +593,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>PCM-20251023-00002109</t>
+          <t>PCM-20251024-00000161</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -614,12 +608,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1(2G/3G/LTE) sites down under WJZ0068-P2/WJZ0068-P2 @ Sceco</t>
+          <t>1(2G/LTE/5G) sites down under MAK2246-P3/MAK2246-P3 @ Sceco</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -634,12 +628,12 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>PCM-20251023-00002109</t>
+          <t>PCM-20251024-00000161</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>TT-20251023-02080</t>
+          <t>TT-20251024-00182</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -659,12 +653,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2025-10-23 22:13:42</t>
+          <t>2025-10-24 03:06:22</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2G_3G_LTE SA</t>
+          <t>2G_LTE_5G SA</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -684,7 +678,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-10-23 22:13:42</t>
+          <t>2025-10-24 03:06:22</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -714,7 +708,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>PCM-20251023-00002109</t>
+          <t>PCM-20251024-00000161</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -724,7 +718,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>WJZ0068</t>
+          <t>MAK2246</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -734,7 +728,7 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>jizan</t>
+          <t>makkah</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -764,17 +758,17 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>WJZ0068-P2</t>
+          <t>MAK2246-P3</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0620</t>
+          <t>SERIAL-20251024-0039</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>2025-10-23 22:13:45</t>
+          <t>2025-10-24 03:06:26</t>
         </is>
       </c>
     </row>
@@ -786,7 +780,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TT-20251023000610</t>
+          <t>TT-20251024000028</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -806,7 +800,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-10-23 22:03:29</t>
+          <t>2025-10-24 02:23:59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -821,22 +815,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>RIY2864</t>
+          <t>MAK0195</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Region_2</t>
+          <t>Region_5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Generator_SG</t>
+          <t>Sceco</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>PCM-20251023-00002088</t>
+          <t>PCM-20251024-00000121</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -851,12 +845,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Cell Unavailable at RIY2C8864-L800-CA-P1-VIP @ Generator_SG</t>
+          <t>1(2G/5G) sites down under MAK0195-P1-HUB/MAK0195-P1-HUB @ Sceco</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -871,12 +865,12 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>PCM-20251023-00002088</t>
+          <t>PCM-20251024-00000121</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>TT-20251023-01821</t>
+          <t>TT-20251024-00113</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -886,32 +880,32 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Cell Unavailable</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2025-10-23 18:44:23</t>
+          <t>2025-10-24 01:51:15</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>LTE SA</t>
+          <t>2G SA</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>29240</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Cell Unavailable</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -921,7 +915,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-10-23 18:44:23</t>
+          <t>2025-10-24 01:51:15</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -931,17 +925,17 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>FLM Team Facing access issue as Security not allowing to enter the Area, Site Owner is Latis.</t>
+          <t>Power issue at site</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>FLM Team Facing access issue as Security not allowing to enter the Area, Site Owner is Latis.</t>
+          <t>Power issue at site</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001824</t>
+          <t>PCM-20251024-00000102</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -951,7 +945,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>PCM-20251023-00002088</t>
+          <t>PCM-20251024-00000121</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -961,7 +955,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t/>
+          <t>MAK0195</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -971,7 +965,7 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>makkah</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -981,12 +975,12 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Telecom</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1001,17 +995,17 @@
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>RIY2C8864</t>
+          <t>MAK0195-P1-HUB</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0614</t>
+          <t>SERIAL-20251024-0028</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2025-10-23 18:45:58</t>
+          <t>2025-10-24 01:51:23</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1017,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TT-20251023000606</t>
+          <t>TT-20251024000023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1043,7 +1037,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-10-23 21:55:29</t>
+          <t>2025-10-24 02:09:09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1058,22 +1052,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>JED0845</t>
+          <t>HMBY0419</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Region_4</t>
+          <t>Region_1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sceco</t>
+          <t>Generator_SG</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>PCM-20251023-00002063</t>
+          <t>PCM-20251024-00000107</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1088,12 +1082,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1(2G) 1(LTE) 2(5G) sites down under JED0845-NR2.6-P3,JED2680-P3/JED2680-P3 @ Sceco</t>
+          <t>1(2G/LTE) sites down under HMBY0419-P3/DM1MBSCH01 @ Generator_SG</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1108,12 +1102,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>PCM-20251023-00002063</t>
+          <t>PCM-20251024-00000107</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>TT-20251023-01924</t>
+          <t>TT-20251024-00121</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1123,7 +1117,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1133,22 +1127,22 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2025-10-23 20:01:05</t>
+          <t>2025-10-24 02:00:47</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2G_LTE_5G SA</t>
+          <t>2G_LTE SA</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>21825</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1158,7 +1152,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-10-23 20:01:05</t>
+          <t>2025-10-24 02:00:47</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1168,17 +1162,17 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>down due to power issue</t>
+          <t/>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>down due to power issue</t>
+          <t/>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001946</t>
+          <t/>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1188,7 +1182,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>PCM-20251023-00002063</t>
+          <t>PCM-20251024-00000107</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1198,7 +1192,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>JED0845</t>
+          <t>HMBY0419</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1208,7 +1202,7 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>dammam</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1218,7 +1212,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Telecom</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1238,17 +1232,17 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>JED2680-P3 2G_LTE_5G,JED0845-NR2.6-P3 5G</t>
+          <t>HMBY0419-P3</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0610</t>
+          <t>SERIAL-20251024-0023</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2025-10-23 20:01:12</t>
+          <t>2025-10-24 02:00:49</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1254,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TT-20251023000596</t>
+          <t>TT-20251024000009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1280,7 +1274,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-10-23 21:15:39</t>
+          <t>2025-10-24 01:01:29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1295,22 +1289,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ARF0756</t>
+          <t>RIY0854</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Region_6</t>
+          <t>Region_2</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Generator_SG</t>
+          <t>Sceco</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>PCM-20251023-00002011</t>
+          <t>PCM-20251024-00000051</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1325,12 +1319,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1(2G/5G) sites down under ARF0756-P3/ARF0756-P3 @ Generator_SG</t>
+          <t>3(2G) 3(LTE) sites down under RIYA6185-P2,RIY0854-P1-VIP,RIY0405-P2/R2_RY1_HWBSC01 @ Sceco</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>VIP</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1345,12 +1339,12 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>PCM-20251023-00002011</t>
+          <t>PCM-20251024-00000051</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>TT-20251023-02014</t>
+          <t>TT-20251024-00049</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1360,32 +1354,32 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2025-10-23 21:06:56</t>
+          <t>2025-10-24 00:51:40</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2G_5G SA</t>
+          <t>2G_LTE SA</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>21825</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1395,7 +1389,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-10-23 21:06:56</t>
+          <t>2025-10-24 00:51:40</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1405,17 +1399,23 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t/>
+          <t>Dear Team,
+Hub:- RIY0854
+Suspecting power issue at hub site and kindly send EM-FLM team to check and resolve issue at site.
+Kindly update TT under EM FLM</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t/>
+          <t>Dear Team,
+Hub:- RIY0854
+Suspecting power issue at hub site and kindly send EM-FLM team to check and resolve issue at site.
+Kindly update TT under EM FLM</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20251024-00000048</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>PCM-20251023-00002011</t>
+          <t>PCM-20251024-00000051</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>ARF0756</t>
+          <t>RIY0854</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>al harja</t>
+          <t>riyadh</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Telecom</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>SRAN</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1475,17 +1475,17 @@
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>ARF0756-P3</t>
+          <t>RIYA6185-P2 2G_LTE,RIY0854-P1-VIP 2G_LTE,RIY0405-P2 2G_LTE</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0598</t>
+          <t>SERIAL-20251024-0009</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2025-10-23 21:06:58</t>
+          <t>2025-10-24 00:51:45</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TT-20251023000591</t>
+          <t>TT-20251023000631</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-10-23 21:01:14</t>
+          <t>2025-10-23 23:22:29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1532,22 +1532,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>JED2066</t>
+          <t>RIY0289</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Region_4</t>
+          <t>Region_2</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Generator_SG</t>
+          <t>Sceco</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001996</t>
+          <t>PCM-20251023-00002175</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1562,12 +1562,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM (No connection to unit)  at JED1M8066-CA-L800-SBTS-P3 @ Generator_SG</t>
+          <t>4(2G) 4(LTE) sites down under RIY2521-P2,RIY2610-P2,RIY0289-P2,RIY2415-P2/R2_RY2_HWBSC01 @ Sceco</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1582,12 +1582,12 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001996</t>
+          <t>PCM-20251023-00002175</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>TT-20251023-01679</t>
+          <t>TT-20251023-02154</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1597,32 +1597,32 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2025-10-23 17:22:52</t>
+          <t>2025-10-23 23:10:15</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>5G_Cell SA</t>
+          <t>2G_LTE SA</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>7116</t>
+          <t>21825</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-10-23 17:22:52</t>
+          <t>2025-10-23 23:10:15</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1642,17 +1642,21 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>site impating due to load issue.</t>
+          <t>Dear Team,
+Hub:-  RIY0289
+Suspecting power issue at hub site and kindly send EM-FLM team to check and resolve issue at site.</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>site impating due to load issue.</t>
+          <t>Dear Team,
+Hub:-  RIY0289
+Suspecting power issue at hub site and kindly send EM-FLM team to check and resolve issue at site.</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001676</t>
+          <t>PCM-20251023-00002166</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1662,7 +1666,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001996</t>
+          <t>PCM-20251023-00002175</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1672,7 +1676,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t/>
+          <t>RIY0289</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -1682,7 +1686,7 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>riyadh</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -1697,7 +1701,7 @@
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>SRAN</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -1712,17 +1716,17 @@
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>JED1M8066</t>
+          <t>RIY2521-P2 2G_LTE,RIY2610-P2 2G_LTE,RIY2415-P2 2G_LTE,RIY0289-P2 2G_LTE</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0593</t>
+          <t>SERIAL-20251023-0635</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2025-10-23 17:23:01</t>
+          <t>2025-10-23 23:10:20</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TT-20251023000587</t>
+          <t>TT-20251023000610</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1754,7 +1758,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-10-23 20:50:29</t>
+          <t>2025-10-23 22:03:29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1769,22 +1773,22 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>JED0271</t>
+          <t>RIY2864</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Region_4</t>
+          <t>Region_2</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sceco</t>
+          <t>Generator_SG</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001983</t>
+          <t>PCM-20251023-00002088</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1799,12 +1803,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM (No connection to unit)  at JED0271-G9-L8-L18-L21-NR2.6-NR3.5-SBTS-P2 @ Sceco</t>
+          <t>Cell Unavailable at RIY2C8864-L800-CA-P1-VIP @ Generator_SG</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1819,12 +1823,12 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001983</t>
+          <t>PCM-20251023-00002088</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>TT-20251023-01861</t>
+          <t>TT-20251023-01821</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1834,32 +1838,32 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>Cell Unavailable</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2025-10-23 19:17:37</t>
+          <t>2025-10-23 18:44:23</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>5G_Cell SA</t>
+          <t>LTE SA</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>7116</t>
+          <t>29240</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>Cell Unavailable</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1869,7 +1873,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-10-23 19:17:37</t>
+          <t>2025-10-23 18:44:23</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1879,17 +1883,17 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>site impating due to load issue.</t>
+          <t>FLM Team Facing access issue as Security not allowing to enter the Area, Site Owner is Latis.</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>site impating due to load issue.</t>
+          <t>FLM Team Facing access issue as Security not allowing to enter the Area, Site Owner is Latis.</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001858</t>
+          <t>PCM-20251023-00001824</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -1899,7 +1903,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001983</t>
+          <t>PCM-20251023-00002088</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -1919,7 +1923,7 @@
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>riyadh</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -1934,7 +1938,7 @@
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -1949,17 +1953,17 @@
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>JED0271</t>
+          <t>RIY2C8864</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0589</t>
+          <t>SERIAL-20251023-0614</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2025-10-23 19:17:42</t>
+          <t>2025-10-23 18:45:58</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1975,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TT-20251023000586</t>
+          <t>TT-20251023000566</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1991,7 +1995,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-10-23 20:45:44</t>
+          <t>2025-10-23 19:41:34</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2006,7 +2010,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>JED0845</t>
+          <t>JED2004</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2021,12 +2025,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001969</t>
+          <t>PCM-20251023-00001888</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Timeout</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -2036,12 +2040,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM (No connection to unit)  at JED1MN0845-NR2.6-P3 @ Sceco</t>
+          <t>2(2G) 2(LTE) 2(5G) sites down under JED2004-P3,JED2717-P1-VIP/JED2717-P1-VIP @ Sceco</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -2056,12 +2060,12 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001969</t>
+          <t>PCM-20251023-00001888</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>TT-20251023-01899</t>
+          <t>TT-20251023-01809</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -2071,32 +2075,32 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2025-10-23 19:45:07</t>
+          <t>2025-10-23 18:38:31</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>5G_Cell SA</t>
+          <t>2G_LTE_5G SA</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>7116</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2106,7 +2110,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-10-23 19:45:07</t>
+          <t>2025-10-23 18:38:31</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2116,17 +2120,17 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>impating due to load issue.</t>
+          <t>JED2004</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>impating due to load issue.</t>
+          <t>JED2004</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001895</t>
+          <t>PCM-20251023-00001820</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2136,7 +2140,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001969</t>
+          <t>PCM-20251023-00001888</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2146,7 +2150,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t/>
+          <t>JED2004</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2171,7 +2175,7 @@
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2186,17 +2190,17 @@
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>JED1MN0845</t>
+          <t>JED2004-P3 2G_LTE_5G,JED2717-P1-VIP 2G_5G</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0588</t>
+          <t>SERIAL-20251023-0568</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2025-10-23 19:45:10</t>
+          <t>2025-10-23 18:38:35</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2212,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TT-20251023000566</t>
+          <t>TT-20251023000426</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2228,7 +2232,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-10-23 19:41:34</t>
+          <t>2025-10-23 15:14:04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2243,7 +2247,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>JED2004</t>
+          <t>RAB0660</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2258,12 +2262,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001888</t>
+          <t>PCM-20251023-00001433</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Timeout</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -2273,12 +2277,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2(2G) 2(LTE) 2(5G) sites down under JED2004-P3,JED2717-P1-VIP/JED2717-P1-VIP @ Sceco</t>
+          <t>WCDMA CELL OUT OF USE (Resource status indication, cell disabled)  at RAB1M3660-P2-USF @ Sceco</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2293,12 +2297,12 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001888</t>
+          <t>PCM-20251023-00001433</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>TT-20251023-01809</t>
+          <t>TT-20251023-01193</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -2308,32 +2312,32 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>WCDMA CELL OUT OF USE</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2025-10-23 18:38:31</t>
+          <t>2025-10-23 13:07:09</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2G_LTE_5G SA</t>
+          <t>3G SA</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>7771</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>WCDMA CELL OUT OF USE</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2343,7 +2347,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-10-23 18:38:31</t>
+          <t>2025-10-23 13:07:09</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2353,17 +2357,17 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>JED2004</t>
+          <t>HT at site</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>JED2004</t>
+          <t>HT at site</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001820</t>
+          <t>PCM-20251023-00001171</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2373,7 +2377,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001888</t>
+          <t>PCM-20251023-00001433</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2383,7 +2387,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>JED2004</t>
+          <t/>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2403,12 +2407,12 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Telecom</t>
+          <t>Reference_telecom</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>3G</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2423,17 +2427,17 @@
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>JED2004-P3 2G_LTE_5G,JED2717-P1-VIP 2G_5G</t>
+          <t>RAB1M3660</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0568</t>
+          <t>SERIAL-20251023-0427</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2025-10-23 18:38:35</t>
+          <t>2025-10-23 13:09:19</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2449,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TT-20251023000426</t>
+          <t>TT-20251022000639</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2455,7 +2459,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t/>
+          <t>Resolve</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2465,7 +2469,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-10-23 15:14:04</t>
+          <t>2025-10-22 23:36:39</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2480,7 +2484,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>RAB0660</t>
+          <t>BHR2973</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2495,12 +2499,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001433</t>
+          <t>PCM-20251022-00002252</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Timeout</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2510,12 +2514,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>WCDMA CELL OUT OF USE (Resource status indication, cell disabled)  at RAB1M3660-P2-USF @ Sceco</t>
+          <t>1(2G/5G) sites down under BHR2973-P3/BHR2973-P3 @ Sceco</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2530,12 +2534,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001433</t>
+          <t>PCM-20251022-00002252</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>TT-20251023-01193</t>
+          <t>TT-20251022-02345</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -2545,7 +2549,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>WCDMA CELL OUT OF USE</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2555,22 +2559,22 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2025-10-23 13:07:09</t>
+          <t>2025-10-22 23:27:57</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>3G SA</t>
+          <t>2G SA</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>7771</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>WCDMA CELL OUT OF USE</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2580,7 +2584,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-10-23 13:07:09</t>
+          <t>2025-10-22 23:27:57</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2590,17 +2594,17 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>HT at site</t>
+          <t/>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>HT at site</t>
+          <t/>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001171</t>
+          <t/>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2610,22 +2614,22 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001433</t>
+          <t>PCM-20251022-00002252</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t/>
+          <t>Clear_Before_Investigation</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t/>
+          <t>BHR2973</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t/>
+          <t>Auto Recovery</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
@@ -2640,37 +2644,37 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Reference_telecom</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>3G</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t/>
+          <t>Auto Clear</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t/>
+          <t>2025-10-23 16:17:33</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>RAB1M3660</t>
+          <t>BHR2973-P3</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0427</t>
+          <t>SERIAL-20251022-0639</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2025-10-23 13:09:19</t>
+          <t>2025-10-22 23:28:03</t>
         </is>
       </c>
     </row>
@@ -2682,7 +2686,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TT-20251022000639</t>
+          <t>TT-20251017000181</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2692,7 +2696,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Resolve</t>
+          <t/>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2702,7 +2706,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-10-22 23:36:39</t>
+          <t>2025-10-17 11:56:09</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2717,12 +2721,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>BHR2973</t>
+          <t>MAK0815</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Region_4</t>
+          <t>Region_5</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2732,7 +2736,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>PCM-20251022-00002252</t>
+          <t>PCM-20251017-00000773</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2747,12 +2751,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1(2G/5G) sites down under BHR2973-P3/BHR2973-P3 @ Sceco</t>
+          <t>1(2G/LTE/5G) sites down under MAK0815-P1/MAK0815-P1 @ Sceco</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2767,12 +2771,12 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>PCM-20251022-00002252</t>
+          <t>PCM-20251017-00000773</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>TT-20251022-02345</t>
+          <t>TT-20251017-00756</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2787,17 +2791,17 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2025-10-22 23:27:57</t>
+          <t>2025-10-17 11:47:46</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2G SA</t>
+          <t>2G_5G SA</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2817,7 +2821,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-10-22 23:27:57</t>
+          <t>2025-10-17 11:47:46</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2847,27 +2851,27 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>PCM-20251022-00002252</t>
+          <t>PCM-20251017-00000773</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>Clear_Before_Investigation</t>
+          <t/>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>BHR2973</t>
+          <t>MAK0815</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>Auto Recovery</t>
+          <t/>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>makkah</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
@@ -2887,27 +2891,27 @@
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>Auto Clear</t>
+          <t/>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>2025-10-23 16:17:33</t>
+          <t>2025-10-18 11:54:13</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>BHR2973-P3</t>
+          <t>MAK0815-P1</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>SERIAL-20251022-0639</t>
+          <t>SERIAL-20251017-0181</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2025-10-22 23:28:03</t>
+          <t>2025-10-17 11:47:51</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2923,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TT-20251017000181</t>
+          <t>TT-20251016000114</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2939,7 +2943,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-10-17 11:56:09</t>
+          <t>2025-10-16 05:53:09</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2954,12 +2958,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>MAK0815</t>
+          <t>JED0145</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Region_5</t>
+          <t>Region_4</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2969,7 +2973,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>PCM-20251017-00000773</t>
+          <t>PCM-20251016-00000558</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2984,12 +2988,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1(2G/LTE/5G) sites down under MAK0815-P1/MAK0815-P1 @ Sceco</t>
+          <t>JED1W0145 Complete down  (REF:CRQ000000534621)</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -3004,12 +3008,12 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>PCM-20251017-00000773</t>
+          <t>PCM-20251016-00000558</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>TT-20251017-00756</t>
+          <t>TT-20251016-00528</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -3019,32 +3023,32 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>Wi-Fi AP Out Of Service</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2025-10-17 11:47:46</t>
+          <t>2025-10-16 03:35:21</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2G_5G SA</t>
+          <t>Wifi SA</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>613007</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>Wi-Fi AP Out Of Service</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -3054,7 +3058,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-10-17 11:47:46</t>
+          <t>2025-10-16 03:35:21</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -3064,17 +3068,17 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t/>
+          <t>power issue</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t/>
+          <t>power issue</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20251016-00000556</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3084,7 +3088,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>PCM-20251017-00000773</t>
+          <t>PCM-20251016-00000558</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3094,7 +3098,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>MAK0815</t>
+          <t>JED0145</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3104,7 +3108,7 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>jeddah</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
@@ -3114,7 +3118,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Reference_telecom</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3129,22 +3133,22 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2025-10-18 11:54:13</t>
+          <t>2025-10-16 04:58:59</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>MAK0815-P1</t>
+          <t>JED1W0145</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>SERIAL-20251017-0181</t>
+          <t>SERIAL-20251016-0115</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2025-10-17 11:47:51</t>
+          <t>2025-10-16 03:35:21</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3160,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TT-20251016000114</t>
+          <t>TT-20251014000257</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3176,7 +3180,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-10-16 05:53:09</t>
+          <t>2025-10-14 11:53:49</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3191,12 +3195,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>JED0145</t>
+          <t>RIY0933</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Region_4</t>
+          <t>Region_2</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3206,7 +3210,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>PCM-20251016-00000558</t>
+          <t>PCM-20251014-00001057</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -3221,7 +3225,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>JED1W0145 Complete down  (REF:CRQ000000534621)</t>
+          <t>2(2G) 2(LTE) sites down under RIY0933-P2,RIY2417-P3/R2_RY2_HWBSC01 (REF:TT-20251006-02255)</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -3241,12 +3245,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>PCM-20251016-00000558</t>
+          <t>PCM-20251014-00001057</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>TT-20251016-00528</t>
+          <t>TT-20251014-01065</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -3256,32 +3260,32 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Wi-Fi AP Out Of Service</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2025-10-16 03:35:21</t>
+          <t>2025-10-07 17:19:38</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Wifi SA</t>
+          <t>2G_LTE SA</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>613007</t>
+          <t>21825</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Wi-Fi AP Out Of Service</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -3291,7 +3295,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-10-16 03:35:21</t>
+          <t>2025-10-07 17:19:38</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -3301,17 +3305,17 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>power issue</t>
+          <t>power issue at site</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>power issue</t>
+          <t>power issue at site</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>PCM-20251016-00000556</t>
+          <t>PCM-20251014-00001055</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3321,7 +3325,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>PCM-20251016-00000558</t>
+          <t>PCM-20251014-00001057</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3331,7 +3335,7 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>JED0145</t>
+          <t>RIY0933</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3341,7 +3345,7 @@
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>riyadh</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
@@ -3356,7 +3360,7 @@
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>SRAN</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
@@ -3366,22 +3370,22 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>2025-10-16 04:58:59</t>
+          <t/>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>JED1W0145</t>
+          <t>RIY0933,RIY2417</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>SERIAL-20251016-0115</t>
+          <t>SERIAL-20251014-0253</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2025-10-16 03:35:21</t>
+          <t>2025-10-07 17:19:38</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3397,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TT-20251014000497</t>
+          <t>TT-20251014000194</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3413,7 +3417,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-10-14 18:30:54</t>
+          <t>2025-10-14 10:32:09</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3428,7 +3432,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>MAK0256</t>
+          <t>MAK0390</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3443,7 +3447,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001824</t>
+          <t>PCM-20251014-00000896</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -3458,12 +3462,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2(2G/LTE/5G) sites down under MAK0256-P2,MAK0219-P2/MAK0256-P2 @ Sceco</t>
+          <t>1(2G/LTE/5G) sites down under MAK0390-P1-HRM/MAK0390-P1-HRM @ Sceco</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -3478,12 +3482,12 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001824</t>
+          <t>PCM-20251014-00000896</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>TT-20251014-01628</t>
+          <t>TT-20251014-00895</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -3498,17 +3502,17 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>2025-10-14 16:13:37</t>
+          <t>2025-10-14 10:23:54</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2G SA</t>
+          <t>2G_5G SA</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3528,7 +3532,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-10-14 16:13:37</t>
+          <t>2025-10-14 10:23:54</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -3538,17 +3542,17 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>Power issue at site</t>
+          <t/>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Power issue at site</t>
+          <t/>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001576</t>
+          <t/>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3558,7 +3562,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001824</t>
+          <t>PCM-20251014-00000896</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -3568,7 +3572,7 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>MAK0256</t>
+          <t>MAK0390</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
@@ -3603,22 +3607,22 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t/>
+          <t>2025-10-14 10:32:09</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>MAK0256-P2</t>
+          <t>MAK0390-P1-HRM</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>SERIAL-20251014-0491</t>
+          <t>SERIAL-20251014-0194</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>2025-10-14 16:13:43</t>
+          <t>2025-10-14 10:23:56</t>
         </is>
       </c>
     </row>
@@ -3630,7 +3634,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TT-20251014000257</t>
+          <t>TT-20251013000282</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3650,7 +3654,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-10-14 11:53:49</t>
+          <t>2025-10-13 10:38:14</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3665,12 +3669,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>RIY0933</t>
+          <t>DAM0314</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Region_2</t>
+          <t>Region_1</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3680,7 +3684,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001057</t>
+          <t>PCM-20251013-00001250</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3695,7 +3699,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2(2G) 2(LTE) sites down under RIY0933-P2,RIY2417-P3/R2_RY2_HWBSC01 (REF:TT-20251006-02255)</t>
+          <t>1(2G/3G/LTE) sites down under DAM0314-P2/R1_DM_HWBSC01 @ Sceco</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -3715,12 +3719,12 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001057</t>
+          <t>PCM-20251013-00001250</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>TT-20251014-01065</t>
+          <t>TT-20251013-01275</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -3740,12 +3744,12 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>2025-10-07 17:19:38</t>
+          <t>2025-10-13 10:29:55</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2G_LTE SA</t>
+          <t>2G_3G_LTE SA</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -3765,7 +3769,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-10-07 17:19:38</t>
+          <t>2025-10-13 10:29:55</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -3775,17 +3779,17 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>power issue at site</t>
+          <t/>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>power issue at site</t>
+          <t/>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001055</t>
+          <t/>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -3795,7 +3799,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001057</t>
+          <t>PCM-20251013-00001250</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -3805,7 +3809,7 @@
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>RIY0933</t>
+          <t>DAM0314</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
@@ -3815,7 +3819,7 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>dammam</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
@@ -3825,12 +3829,12 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Reference_telecom</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>SRAN</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
@@ -3845,17 +3849,17 @@
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>RIY0933,RIY2417</t>
+          <t>DAM0314-P2</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>SERIAL-20251014-0253</t>
+          <t>SERIAL-20251013-0282</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>2025-10-07 17:19:38</t>
+          <t>2025-10-13 10:29:59</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3871,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TT-20251014000194</t>
+          <t>TT-20251012000276</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3887,7 +3891,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-10-14 10:32:09</t>
+          <t>2025-10-12 14:25:29</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3917,7 +3921,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>PCM-20251014-00000896</t>
+          <t>PCM-20251012-00001337</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -3932,7 +3936,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1(2G/LTE/5G) sites down under MAK0390-P1-HRM/MAK0390-P1-HRM @ Sceco</t>
+          <t>BASE STATION SERVICE PROBLEM (No connection to unit) at MAK1MN0390-NR2.6-P1 (Ref:TT-20250928-01564) @ Sceco</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -3952,12 +3956,12 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>PCM-20251014-00000896</t>
+          <t>PCM-20251012-00001337</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>TT-20251014-00895</t>
+          <t>TT-20251002-02312</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -3967,32 +3971,32 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2025-10-14 10:23:54</t>
+          <t>2025-09-28 14:14:38</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2G_5G SA</t>
+          <t>5G SA</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>7116</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -4002,7 +4006,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-10-14 10:23:54</t>
+          <t>2025-09-28 14:14:38</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -4012,17 +4016,17 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t/>
+          <t>5G sector down / Access issue as site located on hotel and closed by Judicial court</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t/>
+          <t>5G sector down / Access issue as site located on hotel and closed by Judicial court</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20251002-00002022</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4032,7 +4036,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>PCM-20251014-00000896</t>
+          <t>PCM-20251012-00001337</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -4042,7 +4046,7 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>MAK0390</t>
+          <t/>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
@@ -4062,12 +4066,12 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Reference_telecom</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
@@ -4077,22 +4081,22 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>2025-10-14 10:32:09</t>
+          <t>2025-10-12 14:25:29</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>MAK0390-P1-HRM</t>
+          <t>MAK1MN0390</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>SERIAL-20251014-0194</t>
+          <t>SERIAL-20251012-0359</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2025-10-14 10:23:56</t>
+          <t>2025-09-28 14:16:00</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4108,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TT-20251013000282</t>
+          <t>TT-20251009000319</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4124,7 +4128,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-10-13 10:38:14</t>
+          <t>2025-10-09 12:41:44</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -4139,12 +4143,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>DAM0314</t>
+          <t>MHL0138</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Region_1</t>
+          <t>Region_6</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4154,7 +4158,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>PCM-20251013-00001250</t>
+          <t>PCM-20251009-00001098</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -4169,12 +4173,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1(2G/3G/LTE) sites down under DAM0314-P2/R1_DM_HWBSC01 @ Sceco</t>
+          <t>1 (3G) site down at MHL1M4138-P3 Under MHL1M4138-P3(REF::TT-20250927-01025) @ Sceco</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -4189,12 +4193,12 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>PCM-20251013-00001250</t>
+          <t>PCM-20251009-00001098</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>TT-20251013-01275</t>
+          <t>TT-20251009-00878</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -4204,7 +4208,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>WCDMA BASE STATION OUT OF USE</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -4214,22 +4218,22 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2025-10-13 10:29:55</t>
+          <t>2025-09-27 23:41:35</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2G_3G_LTE SA</t>
+          <t>3G SA</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>21825</t>
+          <t>7786</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>WCDMA BASE STATION OUT OF USE</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -4239,7 +4243,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-10-13 10:29:55</t>
+          <t>2025-09-27 23:41:35</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
@@ -4249,17 +4253,17 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t/>
+          <t>power issue at site</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t/>
+          <t>power issue at site</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20251009-00000819</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4269,7 +4273,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>PCM-20251013-00001250</t>
+          <t>PCM-20251009-00001098</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -4279,7 +4283,7 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>DAM0314</t>
+          <t>MHL1M4138</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
@@ -4289,7 +4293,7 @@
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>dammam</t>
+          <t>mohail</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
@@ -4299,12 +4303,12 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Telecom</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>3G</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
@@ -4314,22 +4318,22 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t/>
+          <t>2025-10-19 10:11:15</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>DAM0314-P2</t>
+          <t>MHL1M4138</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>SERIAL-20251013-0282</t>
+          <t>SERIAL-20251009-0319</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2025-10-13 10:29:59</t>
+          <t>2025-09-27 23:42:14</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4345,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TT-20251012000276</t>
+          <t>TT-20250930000412</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4361,7 +4365,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-10-12 14:25:29</t>
+          <t>2025-09-30 14:59:49</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4391,7 +4395,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>PCM-20251012-00001337</t>
+          <t>PCM-20250930-00001565</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -4406,7 +4410,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM (No connection to unit) at MAK1MN0390-NR2.6-P1 (Ref:TT-20250928-01564) @ Sceco</t>
+          <t>1(5G) sites down under MAK0390-NR2.6-P1 @ Sceco</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -4426,12 +4430,12 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>PCM-20251012-00001337</t>
+          <t>PCM-20250930-00001565</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>TT-20251002-02312</t>
+          <t>TT-20250928-01564</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -4441,17 +4445,17 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>NE3SWS AGENT NOT RESPONDING TO REQUESTS</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>2025-09-28 14:14:38</t>
+          <t>2025-09-28 14:13:17</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -4461,12 +4465,12 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>7116</t>
+          <t>9047</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>NE3SWS AGENT NOT RESPONDING TO REQUESTS</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -4476,7 +4480,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-09-28 14:14:38</t>
+          <t>2025-09-28 14:13:17</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -4486,17 +4490,17 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>5G sector down / Access issue as site located on hotel and closed by Judicial court</t>
+          <t>Access issue as site located on hotel and closed by Judicial court and after confirm from spoc TE &amp; EM escalated to GLI Domain</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>5G sector down / Access issue as site located on hotel and closed by Judicial court</t>
+          <t>Access issue as site located on hotel and closed by Judicial court and after confirm from spoc TE &amp; EM escalated to GLI Domain</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>PCM-20251002-00002022</t>
+          <t>PCM-20250928-00001635</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4506,7 +4510,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>PCM-20251012-00001337</t>
+          <t>PCM-20250930-00001565</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4516,7 +4520,7 @@
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t/>
+          <t>MAK0390</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
@@ -4536,12 +4540,12 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Reference_telecom</t>
+          <t>Telecom</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
@@ -4551,22 +4555,22 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>2025-10-12 14:25:29</t>
+          <t/>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>MAK1MN0390</t>
+          <t>MAK0390-NR2.6-P1</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>SERIAL-20251012-0359</t>
+          <t>SERIAL-20250930-0409</t>
         </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>2025-09-28 14:16:00</t>
+          <t>2025-09-28 14:13:20</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4582,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TT-20251009000319</t>
+          <t>TT-20250926000056</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4598,7 +4602,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-10-09 12:41:44</t>
+          <t>2025-09-26 04:31:49</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4613,12 +4617,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>MHL0138</t>
+          <t>MAK0390</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Region_6</t>
+          <t>Region_5</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4628,7 +4632,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>PCM-20251009-00001098</t>
+          <t>PCM-20250926-00000245</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -4643,12 +4647,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1 (3G) site down at MHL1M4138-P3 Under MHL1M4138-P3(REF::TT-20250927-01025) @ Sceco</t>
+          <t>BASE STATION SERVICE PROBLEM (No connection to unit)  at MAK1MN0390-NR2.6-P1 @ Sceco</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -4663,12 +4667,12 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>PCM-20251009-00001098</t>
+          <t>PCM-20250926-00000245</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>TT-20251009-00878</t>
+          <t>TT-20250926-00215</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -4678,32 +4682,32 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>WCDMA BASE STATION OUT OF USE</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>2025-09-27 23:41:35</t>
+          <t>2025-09-26 03:45:55</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>3G SA</t>
+          <t>5G_Cell SA</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>7786</t>
+          <t>7116</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>WCDMA BASE STATION OUT OF USE</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -4713,7 +4717,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-09-27 23:41:35</t>
+          <t>2025-09-26 03:45:55</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -4723,17 +4727,17 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>power issue at site</t>
+          <t>GLI Site under access issue as located on hotel and closed by Judicial court, and confirmed to escalate till secure access</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>power issue at site</t>
+          <t>GLI Site under access issue as located on hotel and closed by Judicial court, and confirmed to escalate till secure access</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>PCM-20251009-00000819</t>
+          <t>PCM-20250926-00000212</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -4743,7 +4747,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>PCM-20251009-00001098</t>
+          <t>PCM-20250926-00000245</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
@@ -4753,7 +4757,7 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>MHL1M4138</t>
+          <t/>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
@@ -4763,7 +4767,7 @@
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>mohail</t>
+          <t>makkah</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
@@ -4778,7 +4782,7 @@
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>3G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
@@ -4788,22 +4792,22 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>2025-10-19 10:11:15</t>
+          <t>2025-09-26 04:31:49</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>MHL1M4138</t>
+          <t>MAK1MN0390</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>SERIAL-20251009-0319</t>
+          <t>SERIAL-20250926-0056</t>
         </is>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>2025-09-27 23:42:14</t>
+          <t>2025-09-26 03:47:45</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4819,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TT-20250930000412</t>
+          <t>TT-20250822000492</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4835,7 +4839,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-09-30 14:59:49</t>
+          <t>2025-08-22 19:57:39</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4850,7 +4854,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>MAK0390</t>
+          <t>AKR0339</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -4860,12 +4864,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sceco</t>
+          <t>Generator_SG</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>PCM-20250930-00001565</t>
+          <t>PCM-20250822-00001816</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -4880,12 +4884,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1(5G) sites down under MAK0390-NR2.6-P1 @ Sceco</t>
+          <t>5(2G) 5(3G) 3(LTE) 3(5G) sites down under MSE0624-P2-USF,AKR0339-P2-USF, AKR0971-P3,MDQ0970-P3,MDQ2367-P2-USF/MDQ2367-P2-USF @ Generator_SG</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -4900,12 +4904,12 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>PCM-20250930-00001565</t>
+          <t>PCM-20250822-00001816</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>TT-20250928-01564</t>
+          <t>TT-20250822-01600</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -4915,7 +4919,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>NE3SWS AGENT NOT RESPONDING TO REQUESTS</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -4925,22 +4929,22 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>2025-09-28 14:13:17</t>
+          <t>2025-08-22 18:58:05</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>5G SA</t>
+          <t>2G_3G_LTE_5G SA</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>9047</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>NE3SWS AGENT NOT RESPONDING TO REQUESTS</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -4950,7 +4954,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-09-28 14:13:17</t>
+          <t>2025-08-22 18:58:05</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -4960,17 +4964,21 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>Access issue as site located on hotel and closed by Judicial court and after confirm from spoc TE &amp; EM escalated to GLI Domain</t>
+          <t>Hub: AKR0339, MDQ2367, MSE0624
+We are observing RSL-99.00 at far end, kindly visit the site and check the issue as we are suspecting power issue at site.
+Kindly update TT under EM, FLM</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>Access issue as site located on hotel and closed by Judicial court and after confirm from spoc TE &amp; EM escalated to GLI Domain</t>
+          <t>Hub: AKR0339, MDQ2367, MSE0624
+We are observing RSL-99.00 at far end, kindly visit the site and check the issue as we are suspecting power issue at site.
+Kindly update TT under EM, FLM</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>PCM-20250928-00001635</t>
+          <t>PCM-20250822-00001797</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -4980,7 +4988,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>PCM-20250930-00001565</t>
+          <t>PCM-20250822-00001816</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
@@ -4990,7 +4998,7 @@
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>MAK0390</t>
+          <t>AKR0339</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
@@ -5030,17 +5038,17 @@
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>MAK0390-NR2.6-P1</t>
+          <t>MSE0624-P2-USF 3G_LTE,MDQ2367-P2-USF 2G_3G_5G,AKR0971-P3 2G_3G,MDQ0970-P3 2G_3G</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>SERIAL-20250930-0409</t>
+          <t>SERIAL-20250822-0492</t>
         </is>
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>2025-09-28 14:13:20</t>
+          <t>2025-08-22 18:58:10</t>
         </is>
       </c>
     </row>
@@ -5052,7 +5060,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TT-20250926000056</t>
+          <t>TT-20250616000787</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5072,7 +5080,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-09-26 04:31:49</t>
+          <t>2025-06-16 23:59:08</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -5087,22 +5095,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>MAK0390</t>
+          <t>RIY0274</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Region_5</t>
+          <t>Region_2</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sceco</t>
+          <t>Generator_SG</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>PCM-20250926-00000245</t>
+          <t>PCM-20250616-00002875</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -5117,12 +5125,12 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM (No connection to unit)  at MAK1MN0390-NR2.6-P1 @ Sceco</t>
+          <t>1(2G/LTE) sites down under RIY0274-P3/R2_RY1_HWBSC01 @ Generator_SG</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -5137,12 +5145,12 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>PCM-20250926-00000245</t>
+          <t>PCM-20250616-00002875</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>TT-20250926-00215</t>
+          <t>TT-20250616-03062</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -5152,32 +5160,32 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>2025-09-26 03:45:55</t>
+          <t>2025-06-16 23:50:43</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>5G_Cell SA</t>
+          <t>2G_LTE SA</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>7116</t>
+          <t>21825</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -5187,7 +5195,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-09-26 03:45:55</t>
+          <t>2025-06-16 23:50:43</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -5197,17 +5205,17 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>GLI Site under access issue as located on hotel and closed by Judicial court, and confirmed to escalate till secure access</t>
+          <t/>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>GLI Site under access issue as located on hotel and closed by Judicial court, and confirmed to escalate till secure access</t>
+          <t/>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>PCM-20250926-00000212</t>
+          <t/>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -5217,7 +5225,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>PCM-20250926-00000245</t>
+          <t>PCM-20250616-00002875</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -5227,7 +5235,7 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t/>
+          <t>RIY0274</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
@@ -5237,7 +5245,7 @@
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>riyadh</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
@@ -5247,12 +5255,12 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Telecom</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
@@ -5262,22 +5270,22 @@
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>2025-09-26 04:31:49</t>
+          <t/>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>MAK1MN0390</t>
+          <t>RIY0274-P3</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>SERIAL-20250926-0056</t>
+          <t>SERIAL-20250616-0791</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>2025-09-26 03:47:45</t>
+          <t>2025-06-16 23:50:46</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5297,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TT-20250822000492</t>
+          <t>TT-20250529000666</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5309,7 +5317,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-08-22 19:57:39</t>
+          <t>2025-05-29 17:27:08</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -5324,22 +5332,22 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>AKR0339</t>
+          <t>RIY2903</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Region_5</t>
+          <t>Region_2</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Generator_SG</t>
+          <t>Sceco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>PCM-20250822-00001816</t>
+          <t>PCM-20250529-00002138</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -5354,12 +5362,12 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>5(2G) 5(3G) 3(LTE) 3(5G) sites down under MSE0624-P2-USF,AKR0339-P2-USF, AKR0971-P3,MDQ0970-P3,MDQ2367-P2-USF/MDQ2367-P2-USF @ Generator_SG</t>
+          <t>1(2G/LTE/5G) sites down under RIY2903-P3 @ Sceco (Ref:TT-20250514-01549)</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -5374,12 +5382,12 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>PCM-20250822-00001816</t>
+          <t>PCM-20250529-00002138</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>TT-20250822-01600</t>
+          <t>TT-20250529-02091</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -5389,32 +5397,32 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>gNodeB Out of Service</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2025-08-22 18:58:05</t>
+          <t>2025-05-14 13:02:01</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2G_3G_LTE_5G SA</t>
+          <t>2G SA</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>29840</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>gNodeB Out of Service</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -5424,7 +5432,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-08-22 18:58:05</t>
+          <t>2025-05-14 13:02:01</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -5434,21 +5442,17 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>Hub: AKR0339, MDQ2367, MSE0624
-We are observing RSL-99.00 at far end, kindly visit the site and check the issue as we are suspecting power issue at site.
-Kindly update TT under EM, FLM</t>
+          <t/>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>Hub: AKR0339, MDQ2367, MSE0624
-We are observing RSL-99.00 at far end, kindly visit the site and check the issue as we are suspecting power issue at site.
-Kindly update TT under EM, FLM</t>
+          <t/>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>PCM-20250822-00001797</t>
+          <t/>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5458,7 +5462,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>PCM-20250822-00001816</t>
+          <t>PCM-20250529-00002138</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -5468,7 +5472,7 @@
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>AKR0339</t>
+          <t>RIY2903</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
@@ -5478,7 +5482,7 @@
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>riyadh</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
@@ -5488,12 +5492,12 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Telecom</t>
+          <t>Reference_EM</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>SRAN</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
@@ -5503,22 +5507,22 @@
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t/>
+          <t>2025-10-22 17:06:35</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>MSE0624-P2-USF 3G_LTE,MDQ2367-P2-USF 2G_3G_5G,AKR0971-P3 2G_3G,MDQ0970-P3 2G_3G</t>
+          <t>RIY2903</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>SERIAL-20250822-0492</t>
+          <t>SERIAL-20250529-0670</t>
         </is>
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>2025-08-22 18:58:10</t>
+          <t>2025-05-14 13:02:01</t>
         </is>
       </c>
     </row>
@@ -5530,7 +5534,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TT-20250616000787</t>
+          <t>TT-20250421000285</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5550,7 +5554,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-16 23:59:08</t>
+          <t>2025-04-21 12:08:58</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -5565,7 +5569,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>RIY0274</t>
+          <t>RIY2486</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -5580,7 +5584,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>PCM-20250616-00002875</t>
+          <t>PCM-20250421-00001074</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -5595,7 +5599,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1(2G/LTE) sites down under RIY0274-P3/R2_RY1_HWBSC01 @ Generator_SG</t>
+          <t>1(2G/LTE) sites down under RIY2486-P3-VIP-RIYSEASON/R2_RY1_HWBSC01 @ Generator_SG (Ref:TT-20240131-00081)</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -5615,12 +5619,12 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>PCM-20250616-00002875</t>
+          <t>PCM-20250421-00001074</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>TT-20250616-03062</t>
+          <t>TT-20250421-01118</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -5640,7 +5644,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>2025-06-16 23:50:43</t>
+          <t>2024-01-31 01:13:03</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -5665,7 +5669,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-06-16 23:50:43</t>
+          <t>2024-01-31 01:13:03</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -5695,7 +5699,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>PCM-20250616-00002875</t>
+          <t>PCM-20250421-00001074</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -5705,7 +5709,7 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>RIY0274</t>
+          <t>RIY2486</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
@@ -5725,12 +5729,12 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Reference_EM</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>SRAN</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
@@ -5745,17 +5749,17 @@
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>RIY0274-P3</t>
+          <t>RIY2486</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
-          <t>SERIAL-20250616-0791</t>
+          <t>SERIAL-20250421-0285</t>
         </is>
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>2025-06-16 23:50:46</t>
+          <t>2024-01-31 01:13:03</t>
         </is>
       </c>
     </row>
@@ -5767,7 +5771,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TT-20250529000666</t>
+          <t>TT-20250215000219</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5787,7 +5791,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-29 17:27:08</t>
+          <t>2025-02-15 11:32:08</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -5802,12 +5806,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>RIY2903</t>
+          <t>MKJD0649</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Region_2</t>
+          <t>Region_4</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -5817,7 +5821,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>PCM-20250529-00002138</t>
+          <t>PCM-20250215-00000830</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -5832,7 +5836,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1(2G/LTE/5G) sites down under RIY2903-P3 @ Sceco (Ref:TT-20250514-01549)</t>
+          <t>1(2G/LTE) sites down under MKJD0649-P3 @ Sceco</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -5852,12 +5856,12 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>PCM-20250529-00002138</t>
+          <t>PCM-20250215-00000830</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>TT-20250529-02091</t>
+          <t>TT-20250215-00867</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -5867,7 +5871,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>gNodeB Out of Service</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -5877,22 +5881,22 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2025-05-14 13:02:01</t>
+          <t>2025-02-15 11:23:40</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2G SA</t>
+          <t>2G_LTE SA</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>29840</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>gNodeB Out of Service</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -5902,7 +5906,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-05-14 13:02:01</t>
+          <t>2025-02-15 11:23:40</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -5932,7 +5936,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>PCM-20250529-00002138</t>
+          <t>PCM-20250215-00000830</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
@@ -5942,7 +5946,7 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>RIY2903</t>
+          <t/>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
@@ -5952,7 +5956,7 @@
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>jeddah</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
@@ -5962,12 +5966,12 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Reference_EM</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>SRAN</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
@@ -5977,22 +5981,22 @@
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>2025-10-22 17:06:35</t>
+          <t/>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>RIY2903</t>
+          <t>MKJD0649-P3</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
         <is>
-          <t>SERIAL-20250529-0670</t>
+          <t>SERIAL-20250215-0219</t>
         </is>
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>2025-05-14 13:02:01</t>
+          <t>2025-02-15 11:23:44</t>
         </is>
       </c>
     </row>
@@ -6004,7 +6008,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TT-20250421000285</t>
+          <t>TT-20250105000808</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6024,7 +6028,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-04-21 12:08:58</t>
+          <t>2025-01-05 22:45:38</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -6039,12 +6043,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>RIY2486</t>
+          <t>JBL2138</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Region_2</t>
+          <t>Region_1</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -6054,7 +6058,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>PCM-20250421-00001074</t>
+          <t>PCM-20250105-00002270</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -6069,7 +6073,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1(2G/LTE) sites down under RIY2486-P3-VIP-RIYSEASON/R2_RY1_HWBSC01 @ Generator_SG (Ref:TT-20240131-00081)</t>
+          <t>1(2G/3G/LTE) sites down under JBL2138-P3/R1_JB_HWBSC01 @ Generator_SG</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -6089,12 +6093,12 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>PCM-20250421-00001074</t>
+          <t>PCM-20250105-00002270</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>TT-20250421-01118</t>
+          <t>TT-20250105-02466</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -6104,7 +6108,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>OML Fault</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -6114,22 +6118,22 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>2024-01-31 01:13:03</t>
+          <t>2025-01-05 22:38:30</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2G_LTE SA</t>
+          <t>2G_3G_LTE SA</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>21825</t>
+          <t>21807</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>OML Fault</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -6139,7 +6143,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2024-01-31 01:13:03</t>
+          <t>2025-01-05 22:38:30</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -6169,7 +6173,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>PCM-20250421-00001074</t>
+          <t>PCM-20250105-00002270</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -6179,7 +6183,7 @@
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>RIY2486</t>
+          <t/>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
@@ -6189,7 +6193,7 @@
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>jubail</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
@@ -6199,12 +6203,12 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Reference_EM</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>SRAN</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
@@ -6219,489 +6223,15 @@
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>RIY2486</t>
+          <t>JBL2138-P3</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>SERIAL-20250421-0285</t>
+          <t>SERIAL-20250105-0808</t>
         </is>
       </c>
       <c r="AU26" t="inlineStr">
-        <is>
-          <t>2024-01-31 01:13:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>TT-20250215000219</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Running</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-02-15 11:32:08</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>MKJD0649</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Region_4</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Sceco</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>PCM-20250215-00000830</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Timeout</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>1(2G/LTE) sites down under MKJD0649-P3 @ Sceco</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Outage</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>PCM-20250215-00000830</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>TT-20250215-00867</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>FLM_EM</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>2025-02-15 11:23:40</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>2G_LTE SA</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>7706</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>2025-02-15 11:23:40</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>PCM-20250215-00000830</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>jeddah</t>
-        </is>
-      </c>
-      <c r="AN27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>EM</t>
-        </is>
-      </c>
-      <c r="AP27" t="inlineStr">
-        <is>
-          <t>2G</t>
-        </is>
-      </c>
-      <c r="AQ27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS27" t="inlineStr">
-        <is>
-          <t>MKJD0649-P3</t>
-        </is>
-      </c>
-      <c r="AT27" t="inlineStr">
-        <is>
-          <t>SERIAL-20250215-0219</t>
-        </is>
-      </c>
-      <c r="AU27" t="inlineStr">
-        <is>
-          <t>2025-02-15 11:23:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TT-20250105000808</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Running</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2025-01-05 22:45:38</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>JBL2138</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Region_1</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Generator_SG</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>PCM-20250105-00002270</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Timeout</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>1(2G/3G/LTE) sites down under JBL2138-P3/R1_JB_HWBSC01 @ Generator_SG</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Outage</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>PCM-20250105-00002270</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>TT-20250105-02466</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>FLM_EM</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>OML Fault</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>2025-01-05 22:38:30</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>2G_3G_LTE SA</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>21807</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>OML Fault</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>2025-01-05 22:38:30</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI28" t="inlineStr">
-        <is>
-          <t>PCM-20250105-00002270</t>
-        </is>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>jubail</t>
-        </is>
-      </c>
-      <c r="AN28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>EM</t>
-        </is>
-      </c>
-      <c r="AP28" t="inlineStr">
-        <is>
-          <t>2G</t>
-        </is>
-      </c>
-      <c r="AQ28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS28" t="inlineStr">
-        <is>
-          <t>JBL2138-P3</t>
-        </is>
-      </c>
-      <c r="AT28" t="inlineStr">
-        <is>
-          <t>SERIAL-20250105-0808</t>
-        </is>
-      </c>
-      <c r="AU28" t="inlineStr">
         <is>
           <t>2025-01-05 22:38:37</t>
         </is>

--- a/TMS_PCMs.xlsx
+++ b/TMS_PCMs.xlsx
@@ -306,7 +306,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TT-20251024000043</t>
+          <t>TT-20251024000052</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -326,7 +326,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-24 03:23:39</t>
+          <t>2025-10-24 04:26:39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -341,22 +341,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HAW0293</t>
+          <t>MKTF0647</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Region_4</t>
+          <t>Region_5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Sceco</t>
+          <t>Generator_SG</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000171</t>
+          <t>PCM-20251024-00000228</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -371,12 +371,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1(2G/3G/5G) sites down under HAW0293-P2/HAW0293-P2 @ Sceco</t>
+          <t>1(2G/3G) sites down under MKTF0647-P1-USF/MKTF0647-P1-USF @ Generator_SG</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -391,12 +391,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000171</t>
+          <t>PCM-20251024-00000228</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>TT-20251024-00200</t>
+          <t>TT-20251024-00268</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -411,12 +411,12 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>2025-10-24 03:15:23</t>
+          <t>2025-10-24 04:18:33</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -441,7 +441,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-10-24 03:15:23</t>
+          <t>2025-10-24 04:18:33</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000171</t>
+          <t>PCM-20251024-00000228</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>HAW0293</t>
+          <t>MKTF0647</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>taif</t>
+          <t>makkah</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -521,17 +521,17 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>HAW0293-P2</t>
+          <t>MKTF0647-P1-USF</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>SERIAL-20251024-0042</t>
+          <t>SERIAL-20251024-0052</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>2025-10-24 03:15:26</t>
+          <t>2025-10-24 04:18:36</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TT-20251024000039</t>
+          <t>TT-20251024000050</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-10-24 03:14:39</t>
+          <t>2025-10-24 04:17:24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -578,22 +578,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>MAK2246</t>
+          <t>HMBY2212</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Region_5</t>
+          <t>Region_1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Sceco</t>
+          <t>Generator_SG</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000161</t>
+          <t>PCM-20251024-00000218</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1(2G/LTE/5G) sites down under MAK2246-P3/MAK2246-P3 @ Sceco</t>
+          <t>2(2G) 1(3G) 2(LTE) sites down under HMBY2212-P3,KBR2492-P3/DM1MBSCH01 @ Sceco</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -628,12 +628,12 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000161</t>
+          <t>PCM-20251024-00000218</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>TT-20251024-00182</t>
+          <t>TT-20251024-00248</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -653,22 +653,22 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2025-10-24 03:06:22</t>
+          <t>2025-10-24 04:07:15</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2G_LTE_5G SA</t>
+          <t>2G_3G_LTE SA</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>21825</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-10-24 03:06:22</t>
+          <t>2025-10-24 04:07:15</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -688,17 +688,23 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t/>
+          <t>Dear Team,
+Hub:- HMBY2212
+Suspecting power issue at hub site and kindly send EM-FLM team to check and resolve issue at site.
+Kindly update TT under EM FLM</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t/>
+          <t>Dear Team,
+Hub:- HMBY2212
+Suspecting power issue at hub site and kindly send EM-FLM team to check and resolve issue at site.
+Kindly update TT under EM FLM</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20251024-00000215</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -708,7 +714,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000161</t>
+          <t>PCM-20251024-00000218</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -718,7 +724,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>MAK2246</t>
+          <t>HMBY2212</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -728,7 +734,7 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>dammam</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -738,12 +744,12 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Telecom</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>SRAN</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -758,17 +764,17 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>MAK2246-P3</t>
+          <t>KBR2492-P3 2G_LTE,HMBY2212-P3 2G_3G_LTE</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>SERIAL-20251024-0039</t>
+          <t>SERIAL-20251024-0050</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>2025-10-24 03:06:26</t>
+          <t>2025-10-24 04:07:17</t>
         </is>
       </c>
     </row>
@@ -780,7 +786,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TT-20251024000028</t>
+          <t>TT-20251024000043</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -800,7 +806,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-10-24 02:23:59</t>
+          <t>2025-10-24 03:23:39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -815,12 +821,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>MAK0195</t>
+          <t>HAW0293</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Region_5</t>
+          <t>Region_4</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -830,7 +836,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000121</t>
+          <t>PCM-20251024-00000171</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -845,12 +851,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1(2G/5G) sites down under MAK0195-P1-HUB/MAK0195-P1-HUB @ Sceco</t>
+          <t>1(2G/3G/5G) sites down under HAW0293-P2/HAW0293-P2 @ Sceco</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -865,12 +871,12 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000121</t>
+          <t>PCM-20251024-00000171</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>TT-20251024-00113</t>
+          <t>TT-20251024-00200</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -885,17 +891,17 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2025-10-24 01:51:15</t>
+          <t>2025-10-24 03:15:23</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2G SA</t>
+          <t>2G_3G SA</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -915,7 +921,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-10-24 01:51:15</t>
+          <t>2025-10-24 03:15:23</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -925,17 +931,17 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>Power issue at site</t>
+          <t/>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Power issue at site</t>
+          <t/>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000102</t>
+          <t/>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -945,7 +951,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000121</t>
+          <t>PCM-20251024-00000171</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -955,7 +961,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>MAK0195</t>
+          <t>HAW0293</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -965,7 +971,7 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>taif</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -995,17 +1001,17 @@
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>MAK0195-P1-HUB</t>
+          <t>HAW0293-P2</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>SERIAL-20251024-0028</t>
+          <t>SERIAL-20251024-0042</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2025-10-24 01:51:23</t>
+          <t>2025-10-24 03:15:26</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1023,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TT-20251024000023</t>
+          <t>TT-20251024000028</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1037,7 +1043,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-10-24 02:09:09</t>
+          <t>2025-10-24 02:23:59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1052,22 +1058,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>HMBY0419</t>
+          <t>MAK0195</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Region_1</t>
+          <t>Region_5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Generator_SG</t>
+          <t>Sceco</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000107</t>
+          <t>PCM-20251024-00000121</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1082,12 +1088,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1(2G/LTE) sites down under HMBY0419-P3/DM1MBSCH01 @ Generator_SG</t>
+          <t>1(2G/5G) sites down under MAK0195-P1-HUB/MAK0195-P1-HUB @ Sceco</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1102,12 +1108,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000107</t>
+          <t>PCM-20251024-00000121</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>TT-20251024-00121</t>
+          <t>TT-20251024-00113</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1117,32 +1123,32 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2025-10-24 02:00:47</t>
+          <t>2025-10-24 01:51:15</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2G_LTE SA</t>
+          <t>2G SA</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>21825</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1152,7 +1158,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-10-24 02:00:47</t>
+          <t>2025-10-24 01:51:15</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1162,17 +1168,17 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t/>
+          <t>Power issue at site</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t/>
+          <t>Power issue at site</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20251024-00000102</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1182,7 +1188,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000107</t>
+          <t>PCM-20251024-00000121</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1192,7 +1198,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>HMBY0419</t>
+          <t>MAK0195</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1202,7 +1208,7 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>dammam</t>
+          <t>makkah</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1232,17 +1238,17 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>HMBY0419-P3</t>
+          <t>MAK0195-P1-HUB</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>SERIAL-20251024-0023</t>
+          <t>SERIAL-20251024-0028</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2025-10-24 02:00:49</t>
+          <t>2025-10-24 01:51:23</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1260,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TT-20251024000009</t>
+          <t>TT-20251024000023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1274,7 +1280,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-10-24 01:01:29</t>
+          <t>2025-10-24 02:09:09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1289,22 +1295,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>RIY0854</t>
+          <t>HMBY0419</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Region_2</t>
+          <t>Region_1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sceco</t>
+          <t>Generator_SG</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000051</t>
+          <t>PCM-20251024-00000107</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1319,12 +1325,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3(2G) 3(LTE) sites down under RIYA6185-P2,RIY0854-P1-VIP,RIY0405-P2/R2_RY1_HWBSC01 @ Sceco</t>
+          <t>1(2G/LTE) sites down under HMBY0419-P3/DM1MBSCH01 @ Generator_SG</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1339,12 +1345,12 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000051</t>
+          <t>PCM-20251024-00000107</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>TT-20251024-00049</t>
+          <t>TT-20251024-00121</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1359,12 +1365,12 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2025-10-24 00:51:40</t>
+          <t>2025-10-24 02:00:47</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1389,7 +1395,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-10-24 00:51:40</t>
+          <t>2025-10-24 02:00:47</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1399,23 +1405,17 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>Dear Team,
-Hub:- RIY0854
-Suspecting power issue at hub site and kindly send EM-FLM team to check and resolve issue at site.
-Kindly update TT under EM FLM</t>
+          <t/>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Dear Team,
-Hub:- RIY0854
-Suspecting power issue at hub site and kindly send EM-FLM team to check and resolve issue at site.
-Kindly update TT under EM FLM</t>
+          <t/>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000048</t>
+          <t/>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000051</t>
+          <t>PCM-20251024-00000107</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>RIY0854</t>
+          <t>HMBY0419</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>dammam</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Telecom</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>SRAN</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1475,17 +1475,17 @@
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>RIYA6185-P2 2G_LTE,RIY0854-P1-VIP 2G_LTE,RIY0405-P2 2G_LTE</t>
+          <t>HMBY0419-P3</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>SERIAL-20251024-0009</t>
+          <t>SERIAL-20251024-0023</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2025-10-24 00:51:45</t>
+          <t>2025-10-24 02:00:49</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">

--- a/TMS_PCMs.xlsx
+++ b/TMS_PCMs.xlsx
@@ -306,7 +306,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TT-20251024000052</t>
+          <t>TT-20251024000060</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -326,7 +326,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-24 04:26:39</t>
+          <t>2025-10-24 05:00:14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -341,7 +341,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>MKTF0647</t>
+          <t>MKTF0641</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -351,12 +351,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Generator_SG</t>
+          <t>Sceco</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000228</t>
+          <t>PCM-20251024-00000267</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -371,12 +371,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1(2G/3G) sites down under MKTF0647-P1-USF/MKTF0647-P1-USF @ Generator_SG</t>
+          <t>BASE STATION SERVICE PROBLEM (No connection to unit)  at MKTF1M7641-P2-USF @ Sceco</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -391,12 +391,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000228</t>
+          <t>PCM-20251024-00000267</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>TT-20251024-00268</t>
+          <t>TT-20251024-00230</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -406,32 +406,32 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>2025-10-24 04:18:33</t>
+          <t>2025-10-24 03:51:57</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2G_3G SA</t>
+          <t>5G_Cell SA</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>7116</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -441,7 +441,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-10-24 04:18:33</t>
+          <t>2025-10-24 03:51:57</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -451,17 +451,17 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t/>
+          <t>Power issue at site</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t/>
+          <t>Power issue at site</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20251024-00000195</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000228</t>
+          <t>PCM-20251024-00000267</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>MKTF0647</t>
+          <t/>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Telecom</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -521,17 +521,17 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>MKTF0647-P1-USF</t>
+          <t>MKTF1M7641</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>SERIAL-20251024-0052</t>
+          <t>SERIAL-20251024-0060</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>2025-10-24 04:18:36</t>
+          <t>2025-10-24 03:52:02</t>
         </is>
       </c>
     </row>
@@ -543,150 +543,387 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>TT-20251024000052</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Trouble Ticket</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-10-24 04:26:39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>OWS</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>MKTF0647</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Region_5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Generator_SG</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>PCM-20251024-00000228</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>OWS</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1(2G/3G) sites down under MKTF0647-P1-USF/MKTF0647-P1-USF @ Generator_SG</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Outage</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>PCM-20251024-00000228</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>TT-20251024-00268</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>FLM_EM</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>BTS O&amp;M LINK FAILURE</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2025-10-24 04:18:33</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2G_3G SA</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>7706</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>BTS O&amp;M LINK FAILURE</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>2025-10-24 04:18:33</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>PCM-20251024-00000228</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>MKTF0647</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>makkah</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>EM</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>2G</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>MKTF0647-P1-USF</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>SERIAL-20251024-0052</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>2025-10-24 04:18:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Trouble Ticket</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>TT-20251024000050</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Trouble Ticket</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2025-10-24 04:17:24</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>OWS</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>HMBY2212</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Region_1</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Generator_SG</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>PCM-20251024-00000218</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>OWS</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>2(2G) 1(3G) 2(LTE) sites down under HMBY2212-P3,KBR2492-P3/DM1MBSCH01 @ Sceco</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Outage</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>PCM-20251024-00000218</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>TT-20251024-00248</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>FLM_EM</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>CSL Fault</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>Major</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>2025-10-24 04:07:15</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2G_3G_LTE SA</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>21825</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>CSL Fault</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>2025-10-24 04:07:15</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>Dear Team,
 Hub:- HMBY2212
@@ -694,7 +931,7 @@
 Kindly update TT under EM FLM</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>Dear Team,
 Hub:- HMBY2212
@@ -702,316 +939,79 @@
 Kindly update TT under EM FLM</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>PCM-20251024-00000215</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>PCM-20251024-00000218</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>HMBY2212</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
         <is>
           <t>dammam</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
         <is>
           <t>Telecom</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>SRAN</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
         <is>
           <t>KBR2492-P3 2G_LTE,HMBY2212-P3 2G_3G_LTE</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>SERIAL-20251024-0050</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>2025-10-24 04:07:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TT-20251024000043</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Running</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-10-24 03:23:39</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>HAW0293</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Region_4</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Sceco</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>PCM-20251024-00000171</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1(2G/3G/5G) sites down under HAW0293-P2/HAW0293-P2 @ Sceco</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Outage</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>PCM-20251024-00000171</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>TT-20251024-00200</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>FLM_EM</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2025-10-24 03:15:23</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2G_3G SA</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>7706</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>2025-10-24 03:15:23</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>PCM-20251024-00000171</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>HAW0293</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>taif</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>EM</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>2G</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>HAW0293-P2</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>SERIAL-20251024-0042</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>2025-10-24 03:15:26</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TT-20251024000028</t>
+          <t>TT-20251024000043</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-10-24 02:23:59</t>
+          <t>2025-10-24 03:23:39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1058,12 +1058,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>MAK0195</t>
+          <t>HAW0293</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Region_5</t>
+          <t>Region_4</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000121</t>
+          <t>PCM-20251024-00000171</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1(2G/5G) sites down under MAK0195-P1-HUB/MAK0195-P1-HUB @ Sceco</t>
+          <t>1(2G/3G/5G) sites down under HAW0293-P2/HAW0293-P2 @ Sceco</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1108,12 +1108,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000121</t>
+          <t>PCM-20251024-00000171</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>TT-20251024-00113</t>
+          <t>TT-20251024-00200</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1128,17 +1128,17 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2025-10-24 01:51:15</t>
+          <t>2025-10-24 03:15:23</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2G SA</t>
+          <t>2G_3G SA</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-10-24 01:51:15</t>
+          <t>2025-10-24 03:15:23</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>Power issue at site</t>
+          <t/>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>Power issue at site</t>
+          <t/>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000102</t>
+          <t/>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000121</t>
+          <t>PCM-20251024-00000171</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>MAK0195</t>
+          <t>HAW0293</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>taif</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1238,17 +1238,17 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>MAK0195-P1-HUB</t>
+          <t>HAW0293-P2</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>SERIAL-20251024-0028</t>
+          <t>SERIAL-20251024-0042</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2025-10-24 01:51:23</t>
+          <t>2025-10-24 03:15:26</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TT-20251024000023</t>
+          <t>TT-20251024000028</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-10-24 02:09:09</t>
+          <t>2025-10-24 02:23:59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1295,22 +1295,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>HMBY0419</t>
+          <t>MAK0195</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Region_1</t>
+          <t>Region_5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Generator_SG</t>
+          <t>Sceco</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000107</t>
+          <t>PCM-20251024-00000121</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1325,12 +1325,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1(2G/LTE) sites down under HMBY0419-P3/DM1MBSCH01 @ Generator_SG</t>
+          <t>1(2G/5G) sites down under MAK0195-P1-HUB/MAK0195-P1-HUB @ Sceco</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000107</t>
+          <t>PCM-20251024-00000121</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>TT-20251024-00121</t>
+          <t>TT-20251024-00113</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1360,32 +1360,32 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2025-10-24 02:00:47</t>
+          <t>2025-10-24 01:51:15</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2G_LTE SA</t>
+          <t>2G SA</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>21825</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-10-24 02:00:47</t>
+          <t>2025-10-24 01:51:15</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1405,17 +1405,17 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t/>
+          <t>Power issue at site</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t/>
+          <t>Power issue at site</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20251024-00000102</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>PCM-20251024-00000107</t>
+          <t>PCM-20251024-00000121</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>HMBY0419</t>
+          <t>MAK0195</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>dammam</t>
+          <t>makkah</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1475,17 +1475,17 @@
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>HMBY0419-P3</t>
+          <t>MAK0195-P1-HUB</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>SERIAL-20251024-0023</t>
+          <t>SERIAL-20251024-0028</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2025-10-24 02:00:49</t>
+          <t>2025-10-24 01:51:23</t>
         </is>
       </c>
     </row>
@@ -1497,473 +1497,473 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>TT-20251024000023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Trouble Ticket</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-10-24 02:09:09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>OWS</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>HMBY0419</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Region_1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Generator_SG</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>PCM-20251024-00000107</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>OWS</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1(2G/LTE) sites down under HMBY0419-P3/DM1MBSCH01 @ Generator_SG</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Outage</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>PCM-20251024-00000107</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>TT-20251024-00121</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>FLM_EM</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>CSL Fault</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>2025-10-24 02:00:47</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2G_LTE SA</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>21825</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>CSL Fault</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2025-10-24 02:00:47</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>PCM-20251024-00000107</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>HMBY0419</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>dammam</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>EM</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>2G</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>HMBY0419-P3</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>SERIAL-20251024-0023</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>2025-10-24 02:00:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Trouble Ticket</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>TT-20251023000631</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Trouble Ticket</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2025-10-23 23:22:29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>OWS</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>RIY0289</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Region_2</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Sceco</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>PCM-20251023-00002175</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>OWS</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>4(2G) 4(LTE) sites down under RIY2521-P2,RIY2610-P2,RIY0289-P2,RIY2415-P2/R2_RY2_HWBSC01 @ Sceco</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Outage</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>PCM-20251023-00002175</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>TT-20251023-02154</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>FLM_EM</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>CSL Fault</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>Major</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>2025-10-23 23:10:15</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2G_LTE SA</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>21825</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>CSL Fault</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
         <is>
           <t>2025-10-23 23:10:15</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
         <is>
           <t>Dear Team,
 Hub:-  RIY0289
 Suspecting power issue at hub site and kindly send EM-FLM team to check and resolve issue at site.</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>Dear Team,
 Hub:-  RIY0289
 Suspecting power issue at hub site and kindly send EM-FLM team to check and resolve issue at site.</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>PCM-20251023-00002166</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>PCM-20251023-00002175</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>RIY0289</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
         <is>
           <t>riyadh</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
         <is>
           <t>Telecom</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>SRAN</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
         <is>
           <t>RIY2521-P2 2G_LTE,RIY2610-P2 2G_LTE,RIY2415-P2 2G_LTE,RIY0289-P2 2G_LTE</t>
         </is>
       </c>
-      <c r="AT7" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>SERIAL-20251023-0635</t>
         </is>
       </c>
-      <c r="AU7" t="inlineStr">
+      <c r="AU8" t="inlineStr">
         <is>
           <t>2025-10-23 23:10:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TT-20251023000610</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Running</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-10-23 22:03:29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>RIY2864</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Region_2</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Generator_SG</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>PCM-20251023-00002088</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Cell Unavailable at RIY2C8864-L800-CA-P1-VIP @ Generator_SG</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Outage</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>PCM-20251023-00002088</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>TT-20251023-01821</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>FLM_EM</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Cell Unavailable</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>2025-10-23 18:44:23</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>LTE SA</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>29240</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>Cell Unavailable</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>2025-10-23 18:44:23</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>FLM Team Facing access issue as Security not allowing to enter the Area, Site Owner is Latis.</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>FLM Team Facing access issue as Security not allowing to enter the Area, Site Owner is Latis.</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>PCM-20251023-00001824</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>PCM-20251023-00002088</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>riyadh</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Telecom</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>4G</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>RIY2C8864</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>SERIAL-20251023-0614</t>
-        </is>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>2025-10-23 18:45:58</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TT-20251023000566</t>
+          <t>TT-20251023000610</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-10-23 19:41:34</t>
+          <t>2025-10-23 22:03:29</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2010,27 +2010,27 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>JED2004</t>
+          <t>RIY2864</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Region_4</t>
+          <t>Region_2</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sceco</t>
+          <t>Generator_SG</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001888</t>
+          <t>PCM-20251023-00002088</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Timeout</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2(2G) 2(LTE) 2(5G) sites down under JED2004-P3,JED2717-P1-VIP/JED2717-P1-VIP @ Sceco</t>
+          <t>Cell Unavailable at RIY2C8864-L800-CA-P1-VIP @ Generator_SG</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2060,12 +2060,12 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001888</t>
+          <t>PCM-20251023-00002088</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>TT-20251023-01809</t>
+          <t>TT-20251023-01821</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -2075,32 +2075,32 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>Cell Unavailable</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2025-10-23 18:38:31</t>
+          <t>2025-10-23 18:44:23</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2G_LTE_5G SA</t>
+          <t>LTE SA</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>29240</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>Cell Unavailable</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-10-23 18:38:31</t>
+          <t>2025-10-23 18:44:23</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2120,17 +2120,17 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>JED2004</t>
+          <t>FLM Team Facing access issue as Security not allowing to enter the Area, Site Owner is Latis.</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>JED2004</t>
+          <t>FLM Team Facing access issue as Security not allowing to enter the Area, Site Owner is Latis.</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001820</t>
+          <t>PCM-20251023-00001824</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001888</t>
+          <t>PCM-20251023-00002088</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>JED2004</t>
+          <t/>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>riyadh</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2190,17 +2190,17 @@
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>JED2004-P3 2G_LTE_5G,JED2717-P1-VIP 2G_5G</t>
+          <t>RIY2C8864</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0568</t>
+          <t>SERIAL-20251023-0614</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2025-10-23 18:38:35</t>
+          <t>2025-10-23 18:45:58</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TT-20251023000426</t>
+          <t>TT-20251023000566</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-10-23 15:14:04</t>
+          <t>2025-10-23 19:41:34</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>RAB0660</t>
+          <t>JED2004</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001433</t>
+          <t>PCM-20251023-00001888</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2277,12 +2277,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>WCDMA CELL OUT OF USE (Resource status indication, cell disabled)  at RAB1M3660-P2-USF @ Sceco</t>
+          <t>2(2G) 2(LTE) 2(5G) sites down under JED2004-P3,JED2717-P1-VIP/JED2717-P1-VIP @ Sceco</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2297,12 +2297,12 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001433</t>
+          <t>PCM-20251023-00001888</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>TT-20251023-01193</t>
+          <t>TT-20251023-01809</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -2312,32 +2312,32 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>WCDMA CELL OUT OF USE</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2025-10-23 13:07:09</t>
+          <t>2025-10-23 18:38:31</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>3G SA</t>
+          <t>2G_LTE_5G SA</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>7771</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>WCDMA CELL OUT OF USE</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-10-23 13:07:09</t>
+          <t>2025-10-23 18:38:31</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2357,17 +2357,17 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>HT at site</t>
+          <t>JED2004</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>HT at site</t>
+          <t>JED2004</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001171</t>
+          <t>PCM-20251023-00001820</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>PCM-20251023-00001433</t>
+          <t>PCM-20251023-00001888</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t/>
+          <t>JED2004</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2407,12 +2407,12 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Reference_telecom</t>
+          <t>Telecom</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>3G</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>RAB1M3660</t>
+          <t>JED2004-P3 2G_LTE_5G,JED2717-P1-VIP 2G_5G</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>SERIAL-20251023-0427</t>
+          <t>SERIAL-20251023-0568</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2025-10-23 13:09:19</t>
+          <t>2025-10-23 18:38:35</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TT-20251022000639</t>
+          <t>TT-20251023000426</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Resolve</t>
+          <t/>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-10-22 23:36:39</t>
+          <t>2025-10-23 15:14:04</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>BHR2973</t>
+          <t>RAB0660</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>PCM-20251022-00002252</t>
+          <t>PCM-20251023-00001433</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1(2G/5G) sites down under BHR2973-P3/BHR2973-P3 @ Sceco</t>
+          <t>WCDMA CELL OUT OF USE (Resource status indication, cell disabled)  at RAB1M3660-P2-USF @ Sceco</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>PCM-20251022-00002252</t>
+          <t>PCM-20251023-00001433</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>TT-20251022-02345</t>
+          <t>TT-20251023-01193</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>WCDMA CELL OUT OF USE</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2559,22 +2559,22 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2025-10-22 23:27:57</t>
+          <t>2025-10-23 13:07:09</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2G SA</t>
+          <t>3G SA</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>7771</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>WCDMA CELL OUT OF USE</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-10-22 23:27:57</t>
+          <t>2025-10-23 13:07:09</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2594,17 +2594,17 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t/>
+          <t>HT at site</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t/>
+          <t>HT at site</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20251023-00001171</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2614,22 +2614,22 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>PCM-20251022-00002252</t>
+          <t>PCM-20251023-00001433</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>Clear_Before_Investigation</t>
+          <t/>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>BHR2973</t>
+          <t/>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>Auto Recovery</t>
+          <t/>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
@@ -2644,37 +2644,37 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Reference_telecom</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>3G</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>Auto Clear</t>
+          <t/>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>2025-10-23 16:17:33</t>
+          <t/>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>BHR2973-P3</t>
+          <t>RAB1M3660</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>SERIAL-20251022-0639</t>
+          <t>SERIAL-20251023-0427</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2025-10-22 23:28:03</t>
+          <t>2025-10-23 13:09:19</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TT-20251017000181</t>
+          <t>TT-20251022000639</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t/>
+          <t>Resolve</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-10-17 11:56:09</t>
+          <t>2025-10-22 23:36:39</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2721,12 +2721,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>MAK0815</t>
+          <t>BHR2973</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Region_5</t>
+          <t>Region_4</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>PCM-20251017-00000773</t>
+          <t>PCM-20251022-00002252</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1(2G/LTE/5G) sites down under MAK0815-P1/MAK0815-P1 @ Sceco</t>
+          <t>1(2G/5G) sites down under BHR2973-P3/BHR2973-P3 @ Sceco</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2771,12 +2771,12 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>PCM-20251017-00000773</t>
+          <t>PCM-20251022-00002252</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>TT-20251017-00756</t>
+          <t>TT-20251022-02345</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2791,17 +2791,17 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2025-10-17 11:47:46</t>
+          <t>2025-10-22 23:27:57</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2G_5G SA</t>
+          <t>2G SA</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-10-17 11:47:46</t>
+          <t>2025-10-22 23:27:57</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2851,27 +2851,27 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>PCM-20251017-00000773</t>
+          <t>PCM-20251022-00002252</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t/>
+          <t>Clear_Before_Investigation</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>MAK0815</t>
+          <t>BHR2973</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t/>
+          <t>Auto Recovery</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>jeddah</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
@@ -2891,27 +2891,27 @@
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t/>
+          <t>Auto Clear</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>2025-10-18 11:54:13</t>
+          <t>2025-10-23 16:17:33</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>MAK0815-P1</t>
+          <t>BHR2973-P3</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>SERIAL-20251017-0181</t>
+          <t>SERIAL-20251022-0639</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2025-10-17 11:47:51</t>
+          <t>2025-10-22 23:28:03</t>
         </is>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TT-20251016000114</t>
+          <t>TT-20251017000181</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-10-16 05:53:09</t>
+          <t>2025-10-17 11:56:09</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>JED0145</t>
+          <t>MAK0815</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Region_4</t>
+          <t>Region_5</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>PCM-20251016-00000558</t>
+          <t>PCM-20251017-00000773</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2988,12 +2988,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>JED1W0145 Complete down  (REF:CRQ000000534621)</t>
+          <t>1(2G/LTE/5G) sites down under MAK0815-P1/MAK0815-P1 @ Sceco</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -3008,12 +3008,12 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>PCM-20251016-00000558</t>
+          <t>PCM-20251017-00000773</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>TT-20251016-00528</t>
+          <t>TT-20251017-00756</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -3023,32 +3023,32 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Wi-Fi AP Out Of Service</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2025-10-16 03:35:21</t>
+          <t>2025-10-17 11:47:46</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Wifi SA</t>
+          <t>2G_5G SA</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>613007</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Wi-Fi AP Out Of Service</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-10-16 03:35:21</t>
+          <t>2025-10-17 11:47:46</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -3068,17 +3068,17 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>power issue</t>
+          <t/>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>power issue</t>
+          <t/>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>PCM-20251016-00000556</t>
+          <t/>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>PCM-20251016-00000558</t>
+          <t>PCM-20251017-00000773</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>JED0145</t>
+          <t>MAK0815</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>makkah</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Reference_telecom</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3133,22 +3133,22 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2025-10-16 04:58:59</t>
+          <t>2025-10-18 11:54:13</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>JED1W0145</t>
+          <t>MAK0815-P1</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>SERIAL-20251016-0115</t>
+          <t>SERIAL-20251017-0181</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2025-10-16 03:35:21</t>
+          <t>2025-10-17 11:47:51</t>
         </is>
       </c>
     </row>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TT-20251014000257</t>
+          <t>TT-20251016000114</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-10-14 11:53:49</t>
+          <t>2025-10-16 05:53:09</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3195,12 +3195,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>RIY0933</t>
+          <t>JED0145</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Region_2</t>
+          <t>Region_4</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001057</t>
+          <t>PCM-20251016-00000558</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2(2G) 2(LTE) sites down under RIY0933-P2,RIY2417-P3/R2_RY2_HWBSC01 (REF:TT-20251006-02255)</t>
+          <t>JED1W0145 Complete down  (REF:CRQ000000534621)</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -3245,12 +3245,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001057</t>
+          <t>PCM-20251016-00000558</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>TT-20251014-01065</t>
+          <t>TT-20251016-00528</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -3260,32 +3260,32 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>Wi-Fi AP Out Of Service</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2025-10-07 17:19:38</t>
+          <t>2025-10-16 03:35:21</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2G_LTE SA</t>
+          <t>Wifi SA</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>21825</t>
+          <t>613007</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>Wi-Fi AP Out Of Service</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-10-07 17:19:38</t>
+          <t>2025-10-16 03:35:21</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -3305,17 +3305,17 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>power issue at site</t>
+          <t>power issue</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>power issue at site</t>
+          <t>power issue</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001055</t>
+          <t>PCM-20251016-00000556</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>PCM-20251014-00001057</t>
+          <t>PCM-20251016-00000558</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>RIY0933</t>
+          <t>JED0145</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>jeddah</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>SRAN</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
@@ -3370,22 +3370,22 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t/>
+          <t>2025-10-16 04:58:59</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>RIY0933,RIY2417</t>
+          <t>JED1W0145</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>SERIAL-20251014-0253</t>
+          <t>SERIAL-20251016-0115</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2025-10-07 17:19:38</t>
+          <t>2025-10-16 03:35:21</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TT-20251014000194</t>
+          <t>TT-20251014000257</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-10-14 10:32:09</t>
+          <t>2025-10-14 11:53:49</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3432,12 +3432,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>MAK0390</t>
+          <t>RIY0933</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Region_5</t>
+          <t>Region_2</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>PCM-20251014-00000896</t>
+          <t>PCM-20251014-00001057</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -3462,12 +3462,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1(2G/LTE/5G) sites down under MAK0390-P1-HRM/MAK0390-P1-HRM @ Sceco</t>
+          <t>2(2G) 2(LTE) sites down under RIY0933-P2,RIY2417-P3/R2_RY2_HWBSC01 (REF:TT-20251006-02255)</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -3482,12 +3482,12 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>PCM-20251014-00000896</t>
+          <t>PCM-20251014-00001057</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>TT-20251014-00895</t>
+          <t>TT-20251014-01065</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -3497,32 +3497,32 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>2025-10-14 10:23:54</t>
+          <t>2025-10-07 17:19:38</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2G_5G SA</t>
+          <t>2G_LTE SA</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>21825</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-10-14 10:23:54</t>
+          <t>2025-10-07 17:19:38</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -3542,17 +3542,17 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t/>
+          <t>power issue at site</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t/>
+          <t>power issue at site</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t/>
+          <t>PCM-20251014-00001055</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>PCM-20251014-00000896</t>
+          <t>PCM-20251014-00001057</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>MAK0390</t>
+          <t>RIY0933</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>riyadh</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
@@ -3592,12 +3592,12 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Reference_telecom</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>SRAN</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
@@ -3607,22 +3607,22 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>2025-10-14 10:32:09</t>
+          <t/>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>MAK0390-P1-HRM</t>
+          <t>RIY0933,RIY2417</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>SERIAL-20251014-0194</t>
+          <t>SERIAL-20251014-0253</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>2025-10-14 10:23:56</t>
+          <t>2025-10-07 17:19:38</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TT-20251013000282</t>
+          <t>TT-20251014000194</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-10-13 10:38:14</t>
+          <t>2025-10-14 10:32:09</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3669,12 +3669,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>DAM0314</t>
+          <t>MAK0390</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Region_1</t>
+          <t>Region_5</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>PCM-20251013-00001250</t>
+          <t>PCM-20251014-00000896</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3699,12 +3699,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1(2G/3G/LTE) sites down under DAM0314-P2/R1_DM_HWBSC01 @ Sceco</t>
+          <t>1(2G/LTE/5G) sites down under MAK0390-P1-HRM/MAK0390-P1-HRM @ Sceco</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>PCM-20251013-00001250</t>
+          <t>PCM-20251014-00000896</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>TT-20251013-01275</t>
+          <t>TT-20251014-00895</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -3734,32 +3734,32 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>2025-10-13 10:29:55</t>
+          <t>2025-10-14 10:23:54</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2G_3G_LTE SA</t>
+          <t>2G_5G SA</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>21825</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-10-13 10:29:55</t>
+          <t>2025-10-14 10:23:54</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>PCM-20251013-00001250</t>
+          <t>PCM-20251014-00000896</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>DAM0314</t>
+          <t>MAK0390</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>dammam</t>
+          <t>makkah</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
@@ -3844,22 +3844,22 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t/>
+          <t>2025-10-14 10:32:09</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>DAM0314-P2</t>
+          <t>MAK0390-P1-HRM</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>SERIAL-20251013-0282</t>
+          <t>SERIAL-20251014-0194</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>2025-10-13 10:29:59</t>
+          <t>2025-10-14 10:23:56</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TT-20251012000276</t>
+          <t>TT-20251013000282</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-10-12 14:25:29</t>
+          <t>2025-10-13 10:38:14</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3906,12 +3906,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>MAK0390</t>
+          <t>DAM0314</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Region_5</t>
+          <t>Region_1</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>PCM-20251012-00001337</t>
+          <t>PCM-20251013-00001250</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -3936,12 +3936,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM (No connection to unit) at MAK1MN0390-NR2.6-P1 (Ref:TT-20250928-01564) @ Sceco</t>
+          <t>1(2G/3G/LTE) sites down under DAM0314-P2/R1_DM_HWBSC01 @ Sceco</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>PCM-20251012-00001337</t>
+          <t>PCM-20251013-00001250</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>TT-20251002-02312</t>
+          <t>TT-20251013-01275</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -3981,22 +3981,22 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2025-09-28 14:14:38</t>
+          <t>2025-10-13 10:29:55</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>5G SA</t>
+          <t>2G_3G_LTE SA</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>7116</t>
+          <t>21825</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-09-28 14:14:38</t>
+          <t>2025-10-13 10:29:55</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -4016,17 +4016,17 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>5G sector down / Access issue as site located on hotel and closed by Judicial court</t>
+          <t/>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>5G sector down / Access issue as site located on hotel and closed by Judicial court</t>
+          <t/>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>PCM-20251002-00002022</t>
+          <t/>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>PCM-20251012-00001337</t>
+          <t>PCM-20251013-00001250</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t/>
+          <t>DAM0314</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>dammam</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
@@ -4066,12 +4066,12 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Reference_telecom</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
@@ -4081,22 +4081,22 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>2025-10-12 14:25:29</t>
+          <t/>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>MAK1MN0390</t>
+          <t>DAM0314-P2</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>SERIAL-20251012-0359</t>
+          <t>SERIAL-20251013-0282</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2025-09-28 14:16:00</t>
+          <t>2025-10-13 10:29:59</t>
         </is>
       </c>
     </row>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TT-20251009000319</t>
+          <t>TT-20251012000276</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-10-09 12:41:44</t>
+          <t>2025-10-12 14:25:29</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -4143,12 +4143,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>MHL0138</t>
+          <t>MAK0390</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Region_6</t>
+          <t>Region_5</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>PCM-20251009-00001098</t>
+          <t>PCM-20251012-00001337</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -4173,12 +4173,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1 (3G) site down at MHL1M4138-P3 Under MHL1M4138-P3(REF::TT-20250927-01025) @ Sceco</t>
+          <t>BASE STATION SERVICE PROBLEM (No connection to unit) at MAK1MN0390-NR2.6-P1 (Ref:TT-20250928-01564) @ Sceco</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -4193,12 +4193,12 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>PCM-20251009-00001098</t>
+          <t>PCM-20251012-00001337</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>TT-20251009-00878</t>
+          <t>TT-20251002-02312</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>WCDMA BASE STATION OUT OF USE</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -4218,22 +4218,22 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2025-09-27 23:41:35</t>
+          <t>2025-09-28 14:14:38</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>3G SA</t>
+          <t>5G SA</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>7786</t>
+          <t>7116</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>WCDMA BASE STATION OUT OF USE</t>
+          <t>BASE STATION SERVICE PROBLEM</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-09-27 23:41:35</t>
+          <t>2025-09-28 14:14:38</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
@@ -4253,17 +4253,17 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>power issue at site</t>
+          <t>5G sector down / Access issue as site located on hotel and closed by Judicial court</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>power issue at site</t>
+          <t>5G sector down / Access issue as site located on hotel and closed by Judicial court</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>PCM-20251009-00000819</t>
+          <t>PCM-20251002-00002022</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>PCM-20251009-00001098</t>
+          <t>PCM-20251012-00001337</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>MHL1M4138</t>
+          <t/>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>mohail</t>
+          <t>makkah</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
@@ -4303,12 +4303,12 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Telecom</t>
+          <t>Reference_telecom</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>3G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
@@ -4318,22 +4318,22 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2025-10-19 10:11:15</t>
+          <t>2025-10-12 14:25:29</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>MHL1M4138</t>
+          <t>MAK1MN0390</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>SERIAL-20251009-0319</t>
+          <t>SERIAL-20251012-0359</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2025-09-27 23:42:14</t>
+          <t>2025-09-28 14:16:00</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TT-20250930000412</t>
+          <t>TT-20251009000319</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-09-30 14:59:49</t>
+          <t>2025-10-09 12:41:44</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4380,12 +4380,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>MAK0390</t>
+          <t>MHL0138</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Region_5</t>
+          <t>Region_6</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>PCM-20250930-00001565</t>
+          <t>PCM-20251009-00001098</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -4410,12 +4410,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1(5G) sites down under MAK0390-NR2.6-P1 @ Sceco</t>
+          <t>1 (3G) site down at MHL1M4138-P3 Under MHL1M4138-P3(REF::TT-20250927-01025) @ Sceco</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -4430,12 +4430,12 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>PCM-20250930-00001565</t>
+          <t>PCM-20251009-00001098</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>TT-20250928-01564</t>
+          <t>TT-20251009-00878</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -4445,32 +4445,32 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>NE3SWS AGENT NOT RESPONDING TO REQUESTS</t>
+          <t>WCDMA BASE STATION OUT OF USE</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>2025-09-28 14:13:17</t>
+          <t>2025-09-27 23:41:35</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>5G SA</t>
+          <t>3G SA</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>9047</t>
+          <t>7786</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>NE3SWS AGENT NOT RESPONDING TO REQUESTS</t>
+          <t>WCDMA BASE STATION OUT OF USE</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-09-28 14:13:17</t>
+          <t>2025-09-27 23:41:35</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -4490,17 +4490,17 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>Access issue as site located on hotel and closed by Judicial court and after confirm from spoc TE &amp; EM escalated to GLI Domain</t>
+          <t>power issue at site</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>Access issue as site located on hotel and closed by Judicial court and after confirm from spoc TE &amp; EM escalated to GLI Domain</t>
+          <t>power issue at site</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>PCM-20250928-00001635</t>
+          <t>PCM-20251009-00000819</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>PCM-20250930-00001565</t>
+          <t>PCM-20251009-00001098</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>MAK0390</t>
+          <t>MHL1M4138</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>mohail</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>3G</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
@@ -4555,22 +4555,22 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t/>
+          <t>2025-10-19 10:11:15</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>MAK0390-NR2.6-P1</t>
+          <t>MHL1M4138</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>SERIAL-20250930-0409</t>
+          <t>SERIAL-20251009-0319</t>
         </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>2025-09-28 14:13:20</t>
+          <t>2025-09-27 23:42:14</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TT-20250926000056</t>
+          <t>TT-20250930000412</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-09-26 04:31:49</t>
+          <t>2025-09-30 14:59:49</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>PCM-20250926-00000245</t>
+          <t>PCM-20250930-00001565</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM (No connection to unit)  at MAK1MN0390-NR2.6-P1 @ Sceco</t>
+          <t>1(5G) sites down under MAK0390-NR2.6-P1 @ Sceco</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -4667,12 +4667,12 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>PCM-20250926-00000245</t>
+          <t>PCM-20250930-00001565</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>TT-20250926-00215</t>
+          <t>TT-20250928-01564</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>NE3SWS AGENT NOT RESPONDING TO REQUESTS</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -4692,22 +4692,22 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>2025-09-26 03:45:55</t>
+          <t>2025-09-28 14:13:17</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>5G_Cell SA</t>
+          <t>5G SA</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>7116</t>
+          <t>9047</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>BASE STATION SERVICE PROBLEM</t>
+          <t>NE3SWS AGENT NOT RESPONDING TO REQUESTS</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-09-26 03:45:55</t>
+          <t>2025-09-28 14:13:17</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -4727,17 +4727,17 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>GLI Site under access issue as located on hotel and closed by Judicial court, and confirmed to escalate till secure access</t>
+          <t>Access issue as site located on hotel and closed by Judicial court and after confirm from spoc TE &amp; EM escalated to GLI Domain</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>GLI Site under access issue as located on hotel and closed by Judicial court, and confirmed to escalate till secure access</t>
+          <t>Access issue as site located on hotel and closed by Judicial court and after confirm from spoc TE &amp; EM escalated to GLI Domain</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>PCM-20250926-00000212</t>
+          <t>PCM-20250928-00001635</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>PCM-20250926-00000245</t>
+          <t>PCM-20250930-00001565</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t/>
+          <t>MAK0390</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
@@ -4792,22 +4792,22 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>2025-09-26 04:31:49</t>
+          <t/>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>MAK1MN0390</t>
+          <t>MAK0390-NR2.6-P1</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>SERIAL-20250926-0056</t>
+          <t>SERIAL-20250930-0409</t>
         </is>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>2025-09-26 03:47:45</t>
+          <t>2025-09-28 14:13:20</t>
         </is>
       </c>
     </row>
@@ -4819,473 +4819,473 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>TT-20250926000056</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Trouble Ticket</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-09-26 04:31:49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>OWS</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>MAK0390</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Region_5</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Sceco</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>PCM-20250926-00000245</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Timeout</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>OWS</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>BASE STATION SERVICE PROBLEM (No connection to unit)  at MAK1MN0390-NR2.6-P1 @ Sceco</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Outage</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>PCM-20250926-00000245</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>TT-20250926-00215</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>FLM_EM</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>BASE STATION SERVICE PROBLEM</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>2025-09-26 03:45:55</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>5G_Cell SA</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>7116</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>BASE STATION SERVICE PROBLEM</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>2025-09-26 03:45:55</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>GLI Site under access issue as located on hotel and closed by Judicial court, and confirmed to escalate till secure access</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>GLI Site under access issue as located on hotel and closed by Judicial court, and confirmed to escalate till secure access</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>PCM-20250926-00000212</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>PCM-20250926-00000245</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>makkah</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Telecom</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>2025-09-26 04:31:49</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>MAK1MN0390</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>SERIAL-20250926-0056</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>2025-09-26 03:47:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Trouble Ticket</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>TT-20250822000492</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Trouble Ticket</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2025-08-22 19:57:39</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>OWS</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>AKR0339</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Region_5</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Generator_SG</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>PCM-20250822-00001816</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>Timeout</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>OWS</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>5(2G) 5(3G) 3(LTE) 3(5G) sites down under MSE0624-P2-USF,AKR0339-P2-USF, AKR0971-P3,MDQ0970-P3,MDQ2367-P2-USF/MDQ2367-P2-USF @ Generator_SG</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Outage</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>PCM-20250822-00001816</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>TT-20250822-01600</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>FLM_EM</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>2025-08-22 18:58:05</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>2G_3G_LTE_5G SA</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>7706</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>BTS O&amp;M LINK FAILURE</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
         <is>
           <t>2025-08-22 18:58:05</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
         <is>
           <t>Hub: AKR0339, MDQ2367, MSE0624
 We are observing RSL-99.00 at far end, kindly visit the site and check the issue as we are suspecting power issue at site.
 Kindly update TT under EM, FLM</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>Hub: AKR0339, MDQ2367, MSE0624
 We are observing RSL-99.00 at far end, kindly visit the site and check the issue as we are suspecting power issue at site.
 Kindly update TT under EM, FLM</t>
         </is>
       </c>
-      <c r="AG21" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>PCM-20250822-00001797</t>
         </is>
       </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI21" t="inlineStr">
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
         <is>
           <t>PCM-20250822-00001816</t>
         </is>
       </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
         <is>
           <t>AKR0339</t>
         </is>
       </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
         <is>
           <t>makkah</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
         <is>
           <t>Telecom</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>2G</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS21" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
         <is>
           <t>MSE0624-P2-USF 3G_LTE,MDQ2367-P2-USF 2G_3G_5G,AKR0971-P3 2G_3G,MDQ0970-P3 2G_3G</t>
         </is>
       </c>
-      <c r="AT21" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>SERIAL-20250822-0492</t>
         </is>
       </c>
-      <c r="AU21" t="inlineStr">
+      <c r="AU22" t="inlineStr">
         <is>
           <t>2025-08-22 18:58:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>TT-20250616000787</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Running</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Trouble Ticket</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-06-16 23:59:08</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>RIY0274</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Region_2</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Generator_SG</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>PCM-20250616-00002875</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Timeout</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>OWS</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>1(2G/LTE) sites down under RIY0274-P3/R2_RY1_HWBSC01 @ Generator_SG</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Outage</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>PCM-20250616-00002875</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>TT-20250616-03062</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>FLM_EM</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>CSL Fault</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>2025-06-16 23:50:43</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>2G_LTE SA</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>21825</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>CSL Fault</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>2025-06-16 23:50:43</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>PCM-20250616-00002875</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>RIY0274</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>riyadh</t>
-        </is>
-      </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>EM</t>
-        </is>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>2G</t>
-        </is>
-      </c>
-      <c r="AQ22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS22" t="inlineStr">
-        <is>
-          <t>RIY0274-P3</t>
-        </is>
-      </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>SERIAL-20250616-0791</t>
-        </is>
-      </c>
-      <c r="AU22" t="inlineStr">
-        <is>
-          <t>2025-06-16 23:50:46</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TT-20250529000666</t>
+          <t>TT-20250616000787</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-29 17:27:08</t>
+          <t>2025-06-16 23:59:08</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>RIY2903</t>
+          <t>RIY0274</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -5342,12 +5342,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sceco</t>
+          <t>Generator_SG</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>PCM-20250529-00002138</t>
+          <t>PCM-20250616-00002875</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1(2G/LTE/5G) sites down under RIY2903-P3 @ Sceco (Ref:TT-20250514-01549)</t>
+          <t>1(2G/LTE) sites down under RIY0274-P3/R2_RY1_HWBSC01 @ Generator_SG</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -5382,12 +5382,12 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>PCM-20250529-00002138</t>
+          <t>PCM-20250616-00002875</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>TT-20250529-02091</t>
+          <t>TT-20250616-03062</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>gNodeB Out of Service</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -5407,22 +5407,22 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2025-05-14 13:02:01</t>
+          <t>2025-06-16 23:50:43</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2G SA</t>
+          <t>2G_LTE SA</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>29840</t>
+          <t>21825</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>gNodeB Out of Service</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-05-14 13:02:01</t>
+          <t>2025-06-16 23:50:43</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>PCM-20250529-00002138</t>
+          <t>PCM-20250616-00002875</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>RIY2903</t>
+          <t>RIY0274</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Reference_EM</t>
+          <t>EM</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>SRAN</t>
+          <t>2G</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
@@ -5507,22 +5507,22 @@
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>2025-10-22 17:06:35</t>
+          <t/>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>RIY2903</t>
+          <t>RIY0274-P3</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>SERIAL-20250529-0670</t>
+          <t>SERIAL-20250616-0791</t>
         </is>
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>2025-05-14 13:02:01</t>
+          <t>2025-06-16 23:50:46</t>
         </is>
       </c>
     </row>
@@ -5534,7 +5534,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TT-20250421000285</t>
+          <t>TT-20250529000666</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-04-21 12:08:58</t>
+          <t>2025-05-29 17:27:08</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>RIY2486</t>
+          <t>RIY2903</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -5579,12 +5579,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Generator_SG</t>
+          <t>Sceco</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>PCM-20250421-00001074</t>
+          <t>PCM-20250529-00002138</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1(2G/LTE) sites down under RIY2486-P3-VIP-RIYSEASON/R2_RY1_HWBSC01 @ Generator_SG (Ref:TT-20240131-00081)</t>
+          <t>1(2G/LTE/5G) sites down under RIY2903-P3 @ Sceco (Ref:TT-20250514-01549)</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -5619,12 +5619,12 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>PCM-20250421-00001074</t>
+          <t>PCM-20250529-00002138</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>TT-20250421-01118</t>
+          <t>TT-20250529-02091</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>gNodeB Out of Service</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -5644,22 +5644,22 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>2024-01-31 01:13:03</t>
+          <t>2025-05-14 13:02:01</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2G_LTE SA</t>
+          <t>2G SA</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>21825</t>
+          <t>29840</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>CSL Fault</t>
+          <t>gNodeB Out of Service</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2024-01-31 01:13:03</t>
+          <t>2025-05-14 13:02:01</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>PCM-20250421-00001074</t>
+          <t>PCM-20250529-00002138</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>RIY2486</t>
+          <t>RIY2903</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
@@ -5744,22 +5744,22 @@
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t/>
+          <t>2025-10-22 17:06:35</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>RIY2486</t>
+          <t>RIY2903</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
-          <t>SERIAL-20250421-0285</t>
+          <t>SERIAL-20250529-0670</t>
         </is>
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>2024-01-31 01:13:03</t>
+          <t>2025-05-14 13:02:01</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TT-20250215000219</t>
+          <t>TT-20250421000285</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-02-15 11:32:08</t>
+          <t>2025-04-21 12:08:58</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -5806,22 +5806,22 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>MKJD0649</t>
+          <t>RIY2486</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Region_4</t>
+          <t>Region_2</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sceco</t>
+          <t>Generator_SG</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>PCM-20250215-00000830</t>
+          <t>PCM-20250421-00001074</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1(2G/LTE) sites down under MKJD0649-P3 @ Sceco</t>
+          <t>1(2G/LTE) sites down under RIY2486-P3-VIP-RIYSEASON/R2_RY1_HWBSC01 @ Generator_SG (Ref:TT-20240131-00081)</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -5856,12 +5856,12 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>PCM-20250215-00000830</t>
+          <t>PCM-20250421-00001074</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>TT-20250215-00867</t>
+          <t>TT-20250421-01118</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2025-02-15 11:23:40</t>
+          <t>2024-01-31 01:13:03</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -5891,12 +5891,12 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>21825</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>BTS O&amp;M LINK FAILURE</t>
+          <t>CSL Fault</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-02-15 11:23:40</t>
+          <t>2024-01-31 01:13:03</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>PCM-20250215-00000830</t>
+          <t>PCM-20250421-00001074</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t/>
+          <t>RIY2486</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>riyadh</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
@@ -5966,12 +5966,12 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>Reference_EM</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>2G</t>
+          <t>SRAN</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
@@ -5986,17 +5986,17 @@
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>MKJD0649-P3</t>
+          <t>RIY2486</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
         <is>
-          <t>SERIAL-20250215-0219</t>
+          <t>SERIAL-20250421-0285</t>
         </is>
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>2025-02-15 11:23:44</t>
+          <t>2024-01-31 01:13:03</t>
         </is>
       </c>
     </row>
@@ -6008,230 +6008,467 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>TT-20250215000219</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Trouble Ticket</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-02-15 11:32:08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>OWS</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>MKJD0649</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Region_4</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Sceco</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>PCM-20250215-00000830</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Timeout</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>OWS</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>1(2G/LTE) sites down under MKJD0649-P3 @ Sceco</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Outage</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>PCM-20250215-00000830</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>TT-20250215-00867</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>FLM_EM</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>BTS O&amp;M LINK FAILURE</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>2025-02-15 11:23:40</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2G_LTE SA</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>7706</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>BTS O&amp;M LINK FAILURE</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>2025-02-15 11:23:40</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>PCM-20250215-00000830</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>jeddah</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>EM</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>2G</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>MKJD0649-P3</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>SERIAL-20250215-0219</t>
+        </is>
+      </c>
+      <c r="AU26" t="inlineStr">
+        <is>
+          <t>2025-02-15 11:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Trouble Ticket</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>TT-20250105000808</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Trouble Ticket</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2025-01-05 22:45:38</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>OWS</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>JBL2138</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Region_1</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Generator_SG</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>PCM-20250105-00002270</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>Timeout</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>OWS</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>1(2G/3G/LTE) sites down under JBL2138-P3/R1_JB_HWBSC01 @ Generator_SG</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>Outage</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>PCM-20250105-00002270</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>TT-20250105-02466</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>FLM_EM</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>OML Fault</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t>Major</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>2025-01-05 22:38:30</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="Y27" t="inlineStr">
         <is>
           <t>2G_3G_LTE SA</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="Z27" t="inlineStr">
         <is>
           <t>21807</t>
         </is>
       </c>
-      <c r="AA26" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t>OML Fault</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
         <is>
           <t>2025-01-05 22:38:30</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr">
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
         <is>
           <t>PCM-20250105-00002270</t>
         </is>
       </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
         <is>
           <t>jubail</t>
         </is>
       </c>
-      <c r="AN26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
         <is>
           <t>EM</t>
         </is>
       </c>
-      <c r="AP26" t="inlineStr">
+      <c r="AP27" t="inlineStr">
         <is>
           <t>2G</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS26" t="inlineStr">
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
         <is>
           <t>JBL2138-P3</t>
         </is>
       </c>
-      <c r="AT26" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>SERIAL-20250105-0808</t>
         </is>
       </c>
-      <c r="AU26" t="inlineStr">
+      <c r="AU27" t="inlineStr">
         <is>
           <t>2025-01-05 22:38:37</t>
         </is>
